--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_18_1.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_18_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4209189.415510015</v>
+        <v>-4209855.777186156</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>387777.8738956733</v>
+        <v>387777.8738956734</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058546</v>
+        <v>632041.451805854</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>83.57051687650758</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>36.90995058056123</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>86.82170806664902</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>37.05034583237526</v>
+        <v>37.05034583237519</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>23.74993846779105</v>
+        <v>23.74993846779098</v>
       </c>
       <c r="T11" t="n">
-        <v>18.92346735507954</v>
+        <v>18.92346735507945</v>
       </c>
       <c r="U11" t="n">
-        <v>46.66056629594533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>86.82170806664902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>64.7909494627128</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.036068026875146</v>
+        <v>6.036068026875149</v>
       </c>
       <c r="R12" t="n">
-        <v>86.82170806664902</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>64.79094946271262</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>11.45560918177128</v>
+        <v>11.45560918177119</v>
       </c>
       <c r="U12" t="n">
-        <v>33.73864095187859</v>
+        <v>33.73864095187851</v>
       </c>
       <c r="V12" t="n">
-        <v>37.15992189271594</v>
+        <v>37.15992189271586</v>
       </c>
       <c r="W12" t="n">
-        <v>63.21558455432529</v>
+        <v>63.2155845543252</v>
       </c>
       <c r="X12" t="n">
-        <v>13.8239154167843</v>
+        <v>13.82391541678422</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.89528711133931</v>
+        <v>19.89528711133923</v>
       </c>
     </row>
     <row r="13">
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>31.85365758915246</v>
+        <v>31.85365758915238</v>
       </c>
       <c r="T13" t="n">
-        <v>20.24917275860142</v>
+        <v>20.24917275860134</v>
       </c>
       <c r="U13" t="n">
-        <v>85.16725939265757</v>
+        <v>85.16725939265748</v>
       </c>
       <c r="V13" t="n">
-        <v>41.6200161617636</v>
+        <v>41.62001616176352</v>
       </c>
       <c r="W13" t="n">
-        <v>86.82170806664902</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="X13" t="n">
-        <v>18.43045638555623</v>
+        <v>18.43045638555614</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.65227379148212</v>
+        <v>13.65227379148203</v>
       </c>
     </row>
     <row r="14">
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>86.82170806664902</v>
+        <v>83.57051687650743</v>
       </c>
       <c r="C14" t="n">
-        <v>86.82170806664902</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="E14" t="n">
-        <v>86.82170806664902</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>10.88852681407957</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>37.05034583237519</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>23.74993846779098</v>
       </c>
       <c r="T14" t="n">
-        <v>18.92346735507954</v>
+        <v>18.92346735507945</v>
       </c>
       <c r="U14" t="n">
-        <v>46.66056629594533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1695,16 +1695,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>12.93260177048076</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>12.93260177048096</v>
       </c>
       <c r="I15" t="n">
-        <v>86.82170806664902</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="J15" t="n">
         <v>51.85834769223185</v>
@@ -1728,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.036068026875146</v>
+        <v>6.036068026875149</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -1737,22 +1737,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>11.45560918177128</v>
+        <v>11.45560918177119</v>
       </c>
       <c r="U15" t="n">
-        <v>33.73864095187859</v>
+        <v>33.73864095187851</v>
       </c>
       <c r="V15" t="n">
-        <v>37.15992189271594</v>
+        <v>37.15992189271586</v>
       </c>
       <c r="W15" t="n">
-        <v>63.21558455432529</v>
+        <v>63.2155845543252</v>
       </c>
       <c r="X15" t="n">
-        <v>13.8239154167843</v>
+        <v>13.82391541678422</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.89528711133931</v>
+        <v>19.89528711133923</v>
       </c>
     </row>
     <row r="16">
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>31.85365758915246</v>
+        <v>31.85365758915238</v>
       </c>
       <c r="T16" t="n">
-        <v>20.24917275860142</v>
+        <v>20.24917275860134</v>
       </c>
       <c r="U16" t="n">
-        <v>85.16725939265757</v>
+        <v>85.16725939265748</v>
       </c>
       <c r="V16" t="n">
-        <v>41.6200161617636</v>
+        <v>41.62001616176352</v>
       </c>
       <c r="W16" t="n">
-        <v>86.82170806664902</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="X16" t="n">
-        <v>18.43045638555623</v>
+        <v>18.43045638555614</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.65227379148212</v>
+        <v>13.65227379148203</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>39.53798799326376</v>
+        <v>39.53798799326364</v>
       </c>
       <c r="C17" t="n">
-        <v>15.65624499660925</v>
+        <v>15.65624499660913</v>
       </c>
       <c r="D17" t="n">
-        <v>3.22290725765771</v>
+        <v>3.222907257657596</v>
       </c>
       <c r="E17" t="n">
-        <v>36.92965967706658</v>
+        <v>36.92965967706647</v>
       </c>
       <c r="F17" t="n">
-        <v>68.64999725544391</v>
+        <v>68.64999725544379</v>
       </c>
       <c r="G17" t="n">
-        <v>84.27671840285262</v>
+        <v>84.27671840285251</v>
       </c>
       <c r="H17" t="n">
-        <v>12.34718069694401</v>
+        <v>12.34718069694389</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1904,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>3.347211441197317</v>
+        <v>3.347211441197203</v>
       </c>
       <c r="X17" t="n">
-        <v>25.23346191013655</v>
+        <v>25.23346191013644</v>
       </c>
       <c r="Y17" t="n">
-        <v>47.73631503388032</v>
+        <v>47.7363150338802</v>
       </c>
     </row>
     <row r="18">
@@ -1923,25 +1923,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>86.82170806664902</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>86.82170806664902</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="J18" t="n">
         <v>51.85834769223185</v>
@@ -1965,16 +1965,16 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.036068026875146</v>
+        <v>6.036068026875149</v>
       </c>
       <c r="R18" t="n">
-        <v>86.82170806664902</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>18.57814474599734</v>
       </c>
       <c r="T18" t="n">
-        <v>18.57814474599743</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>39.5379879932637</v>
+        <v>39.53798799326364</v>
       </c>
       <c r="C20" t="n">
-        <v>15.65624499660919</v>
+        <v>15.65624499660913</v>
       </c>
       <c r="D20" t="n">
-        <v>3.222907257657653</v>
+        <v>3.222907257657596</v>
       </c>
       <c r="E20" t="n">
-        <v>36.92965967706652</v>
+        <v>36.92965967706647</v>
       </c>
       <c r="F20" t="n">
-        <v>68.64999725544385</v>
+        <v>68.64999725544379</v>
       </c>
       <c r="G20" t="n">
-        <v>84.27671840285257</v>
+        <v>84.27671840285251</v>
       </c>
       <c r="H20" t="n">
-        <v>12.34718069694395</v>
+        <v>12.34718069694389</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>3.34721144119726</v>
+        <v>3.347211441197203</v>
       </c>
       <c r="X20" t="n">
-        <v>25.2334619101365</v>
+        <v>25.23346191013644</v>
       </c>
       <c r="Y20" t="n">
-        <v>47.73631503388026</v>
+        <v>47.7363150338802</v>
       </c>
     </row>
     <row r="21">
@@ -2166,19 +2166,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>18.57814474599737</v>
       </c>
       <c r="F21" t="n">
-        <v>18.57814474599743</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="G21" t="n">
-        <v>86.82170806664902</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="H21" t="n">
-        <v>86.82170806664902</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>86.82170806664902</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="J21" t="n">
         <v>51.85834769223185</v>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.036068026875146</v>
+        <v>6.036068026875149</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>39.5379879932637</v>
+        <v>39.53798799326364</v>
       </c>
       <c r="C23" t="n">
-        <v>15.65624499660919</v>
+        <v>15.65624499660913</v>
       </c>
       <c r="D23" t="n">
-        <v>3.222907257657653</v>
+        <v>3.222907257657596</v>
       </c>
       <c r="E23" t="n">
-        <v>36.92965967706652</v>
+        <v>36.92965967706647</v>
       </c>
       <c r="F23" t="n">
-        <v>68.64999725544385</v>
+        <v>68.64999725544379</v>
       </c>
       <c r="G23" t="n">
-        <v>84.27671840285257</v>
+        <v>84.27671840285251</v>
       </c>
       <c r="H23" t="n">
-        <v>12.34718069694395</v>
+        <v>12.34718069694389</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>3.34721144119726</v>
+        <v>3.347211441197203</v>
       </c>
       <c r="X23" t="n">
-        <v>25.2334619101365</v>
+        <v>25.23346191013644</v>
       </c>
       <c r="Y23" t="n">
-        <v>47.73631503388026</v>
+        <v>47.7363150338802</v>
       </c>
     </row>
     <row r="24">
@@ -2400,22 +2400,22 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>18.57814474599731</v>
       </c>
       <c r="E24" t="n">
-        <v>18.5781447459972</v>
+        <v>86.82170806664892</v>
       </c>
       <c r="F24" t="n">
-        <v>86.82170806664881</v>
+        <v>86.82170806664892</v>
       </c>
       <c r="G24" t="n">
-        <v>86.82170806664881</v>
+        <v>86.82170806664892</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>86.82170806664881</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>51.85834769223185</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.036068026875146</v>
+        <v>6.036068026875149</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -2561,7 +2561,7 @@
         <v>124.9328516902995</v>
       </c>
       <c r="E26" t="n">
-        <v>158.6396041097083</v>
+        <v>158.6396041097084</v>
       </c>
       <c r="F26" t="n">
         <v>190.3599416880857</v>
@@ -2573,7 +2573,7 @@
         <v>134.0571251295858</v>
       </c>
       <c r="I26" t="n">
-        <v>27.70003690313374</v>
+        <v>27.70003690313376</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.39962953854953</v>
+        <v>14.39962953854956</v>
       </c>
       <c r="T26" t="n">
-        <v>9.573158425838017</v>
+        <v>9.573158425838045</v>
       </c>
       <c r="U26" t="n">
-        <v>37.31025736670381</v>
+        <v>37.31025736670384</v>
       </c>
       <c r="V26" t="n">
         <v>108.0404756572242</v>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.036068026875149</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -2685,10 +2685,10 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>2.105300252529755</v>
+        <v>2.105300252529783</v>
       </c>
       <c r="U27" t="n">
-        <v>24.38833202263708</v>
+        <v>227.5709254003482</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
@@ -2697,10 +2697,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>213.6922678921292</v>
+        <v>4.47360648754281</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.54497818209779</v>
+        <v>10.54497818209782</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.50334865991094</v>
+        <v>22.50334865991097</v>
       </c>
       <c r="T28" t="n">
-        <v>10.8988638293599</v>
+        <v>10.89886382935993</v>
       </c>
       <c r="U28" t="n">
-        <v>75.81695046341605</v>
+        <v>75.81695046341608</v>
       </c>
       <c r="V28" t="n">
-        <v>32.26970723252208</v>
+        <v>32.26970723252211</v>
       </c>
       <c r="W28" t="n">
-        <v>77.4713991374075</v>
+        <v>77.47139913740753</v>
       </c>
       <c r="X28" t="n">
-        <v>9.080147456314705</v>
+        <v>9.080147456314734</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.301964862240595</v>
+        <v>4.301964862240624</v>
       </c>
     </row>
     <row r="29">
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>161.2479324259055</v>
+        <v>161.2479324259056</v>
       </c>
       <c r="C29" t="n">
-        <v>137.366189429251</v>
+        <v>137.3661894292511</v>
       </c>
       <c r="D29" t="n">
         <v>124.9328516902995</v>
       </c>
       <c r="E29" t="n">
-        <v>158.6396041097083</v>
+        <v>158.6396041097084</v>
       </c>
       <c r="F29" t="n">
         <v>190.3599416880857</v>
@@ -2810,7 +2810,7 @@
         <v>134.0571251295858</v>
       </c>
       <c r="I29" t="n">
-        <v>27.70003690313374</v>
+        <v>27.70003690313379</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.39962953854953</v>
+        <v>14.3996295385496</v>
       </c>
       <c r="T29" t="n">
-        <v>9.573158425838017</v>
+        <v>9.57315842583807</v>
       </c>
       <c r="U29" t="n">
-        <v>37.31025736670381</v>
+        <v>37.31025736670387</v>
       </c>
       <c r="V29" t="n">
         <v>108.0404756572242</v>
@@ -2855,7 +2855,7 @@
         <v>125.0571558738391</v>
       </c>
       <c r="X29" t="n">
-        <v>146.9434063427783</v>
+        <v>146.9434063427784</v>
       </c>
       <c r="Y29" t="n">
         <v>169.4462594665221</v>
@@ -2871,16 +2871,16 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>116.3792388676979</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.036068026875149</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>2.105300252529755</v>
+        <v>2.105300252529812</v>
       </c>
       <c r="U30" t="n">
-        <v>24.38833202263708</v>
+        <v>24.38833202263713</v>
       </c>
       <c r="V30" t="n">
-        <v>27.80961296347442</v>
+        <v>71.81989126460681</v>
       </c>
       <c r="W30" t="n">
-        <v>53.86527562508377</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>4.473606487542781</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
-        <v>10.54497818209779</v>
+        <v>10.54497818209785</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.50334865991094</v>
+        <v>22.503348659911</v>
       </c>
       <c r="T31" t="n">
-        <v>10.8988638293599</v>
+        <v>10.89886382935996</v>
       </c>
       <c r="U31" t="n">
-        <v>75.81695046341605</v>
+        <v>75.81695046341611</v>
       </c>
       <c r="V31" t="n">
-        <v>32.26970723252208</v>
+        <v>32.26970723252214</v>
       </c>
       <c r="W31" t="n">
-        <v>77.4713991374075</v>
+        <v>77.47139913740756</v>
       </c>
       <c r="X31" t="n">
-        <v>9.080147456314705</v>
+        <v>9.080147456314762</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.301964862240595</v>
+        <v>4.301964862240652</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>161.2479324259056</v>
+        <v>161.2479324259055</v>
       </c>
       <c r="C32" t="n">
-        <v>137.3661894292511</v>
+        <v>137.366189429251</v>
       </c>
       <c r="D32" t="n">
         <v>124.9328516902995</v>
       </c>
       <c r="E32" t="n">
-        <v>158.6396041097084</v>
+        <v>158.6396041097083</v>
       </c>
       <c r="F32" t="n">
         <v>190.3599416880857</v>
       </c>
       <c r="G32" t="n">
-        <v>205.9866628354945</v>
+        <v>205.9866628354944</v>
       </c>
       <c r="H32" t="n">
         <v>134.0571251295858</v>
       </c>
       <c r="I32" t="n">
-        <v>27.70003690313383</v>
+        <v>27.70003690313374</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.39962953854963</v>
+        <v>14.39962953854953</v>
       </c>
       <c r="T32" t="n">
-        <v>9.573158425838098</v>
+        <v>9.573158425838017</v>
       </c>
       <c r="U32" t="n">
-        <v>37.31025736670389</v>
+        <v>37.31025736670381</v>
       </c>
       <c r="V32" t="n">
-        <v>108.0404756572243</v>
+        <v>108.0404756572242</v>
       </c>
       <c r="W32" t="n">
-        <v>125.0571558738392</v>
+        <v>125.0571558738391</v>
       </c>
       <c r="X32" t="n">
-        <v>146.9434063427784</v>
+        <v>146.9434063427783</v>
       </c>
       <c r="Y32" t="n">
-        <v>169.4462594665222</v>
+        <v>169.4462594665221</v>
       </c>
     </row>
     <row r="33">
@@ -3111,16 +3111,16 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>116.3792388676978</v>
       </c>
       <c r="G33" t="n">
-        <v>69.68031068534452</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.036068026875146</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>2.10530025252984</v>
+        <v>2.105300252529755</v>
       </c>
       <c r="U33" t="n">
-        <v>24.38833202263716</v>
+        <v>24.38833202263708</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>27.80961296347442</v>
       </c>
       <c r="W33" t="n">
-        <v>53.86527562508385</v>
+        <v>53.86527562508377</v>
       </c>
       <c r="X33" t="n">
-        <v>4.473606487542867</v>
+        <v>4.473606487542781</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.54497818209788</v>
+        <v>10.54497818209779</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.50334865991103</v>
+        <v>22.50334865991094</v>
       </c>
       <c r="T34" t="n">
-        <v>10.89886382935998</v>
+        <v>10.8988638293599</v>
       </c>
       <c r="U34" t="n">
-        <v>75.81695046341613</v>
+        <v>75.81695046341605</v>
       </c>
       <c r="V34" t="n">
-        <v>32.26970723252217</v>
+        <v>32.26970723252208</v>
       </c>
       <c r="W34" t="n">
-        <v>77.47139913740759</v>
+        <v>77.4713991374075</v>
       </c>
       <c r="X34" t="n">
-        <v>9.080147456314791</v>
+        <v>9.080147456314705</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.301964862240681</v>
+        <v>4.301964862240595</v>
       </c>
     </row>
     <row r="35">
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>13.23603454357584</v>
+        <v>13.23603454357585</v>
       </c>
       <c r="V35" t="n">
         <v>83.96625283409622</v>
@@ -3342,13 +3342,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>136.5908986439389</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.036068026875149</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -3399,19 +3399,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0.3141091995091076</v>
+        <v>237.2276399745649</v>
       </c>
       <c r="V36" t="n">
-        <v>3.735390140346453</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>29.7910528019558</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>7.467170347953598</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>137.1737096027776</v>
+        <v>137.1737096027775</v>
       </c>
       <c r="C38" t="n">
-        <v>113.2919666061231</v>
+        <v>113.291966606123</v>
       </c>
       <c r="D38" t="n">
-        <v>100.8586288671716</v>
+        <v>100.8586288671715</v>
       </c>
       <c r="E38" t="n">
         <v>134.5653812865804</v>
       </c>
       <c r="F38" t="n">
-        <v>166.2857188649578</v>
+        <v>166.2857188649577</v>
       </c>
       <c r="G38" t="n">
-        <v>181.9124400123665</v>
+        <v>181.9124400123664</v>
       </c>
       <c r="H38" t="n">
-        <v>109.9829023064579</v>
+        <v>109.9829023064578</v>
       </c>
       <c r="I38" t="n">
-        <v>3.625814080005853</v>
+        <v>3.625814080005767</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>13.23603454357593</v>
+        <v>13.23603454357584</v>
       </c>
       <c r="V38" t="n">
-        <v>83.96625283409631</v>
+        <v>83.96625283409622</v>
       </c>
       <c r="W38" t="n">
-        <v>100.9829330507112</v>
+        <v>100.9829330507111</v>
       </c>
       <c r="X38" t="n">
-        <v>122.8691835196504</v>
+        <v>122.8691835196503</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.3720366433942</v>
+        <v>145.3720366433941</v>
       </c>
     </row>
     <row r="39">
@@ -3579,10 +3579,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>106.7961357288339</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.036068026875149</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -3636,13 +3636,13 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0.3141091995091929</v>
+        <v>0.3141091995091076</v>
       </c>
       <c r="V39" t="n">
-        <v>3.735390140346539</v>
+        <v>3.735390140346453</v>
       </c>
       <c r="W39" t="n">
-        <v>29.79105280195589</v>
+        <v>119.7834633772147</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>51.74272764028817</v>
+        <v>51.74272764028809</v>
       </c>
       <c r="V40" t="n">
-        <v>8.195484409394197</v>
+        <v>8.195484409394112</v>
       </c>
       <c r="W40" t="n">
-        <v>53.39717631427962</v>
+        <v>53.39717631427953</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,10 +3737,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>137.1737096027775</v>
+        <v>137.1737096027776</v>
       </c>
       <c r="C41" t="n">
-        <v>113.291966606123</v>
+        <v>113.2919666061231</v>
       </c>
       <c r="D41" t="n">
         <v>100.8586288671715</v>
@@ -3758,7 +3758,7 @@
         <v>109.9829023064578</v>
       </c>
       <c r="I41" t="n">
-        <v>3.625814080005767</v>
+        <v>3.625814080005824</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>13.23603454357584</v>
+        <v>13.2360345435759</v>
       </c>
       <c r="V41" t="n">
-        <v>83.96625283409622</v>
+        <v>83.96625283409628</v>
       </c>
       <c r="W41" t="n">
-        <v>100.9829330507111</v>
+        <v>100.9829330507112</v>
       </c>
       <c r="X41" t="n">
-        <v>122.8691835196503</v>
+        <v>122.8691835196504</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.3720366433941</v>
+        <v>145.3720366433942</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>40.59703132456889</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.036068026875149</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -3873,10 +3873,10 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0.3141091995091076</v>
+        <v>0.3141091995091644</v>
       </c>
       <c r="V42" t="n">
-        <v>50.36848949179068</v>
+        <v>3.73539014034651</v>
       </c>
       <c r="W42" t="n">
         <v>266.7045835770116</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>51.74272764028809</v>
+        <v>51.74272764028814</v>
       </c>
       <c r="V43" t="n">
-        <v>8.195484409394112</v>
+        <v>8.195484409394169</v>
       </c>
       <c r="W43" t="n">
-        <v>53.39717631427953</v>
+        <v>53.39717631427959</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,10 +3974,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>137.1737096027775</v>
+        <v>137.1737096027776</v>
       </c>
       <c r="C44" t="n">
-        <v>113.291966606123</v>
+        <v>113.2919666061231</v>
       </c>
       <c r="D44" t="n">
         <v>100.8586288671715</v>
@@ -3995,7 +3995,7 @@
         <v>109.9829023064578</v>
       </c>
       <c r="I44" t="n">
-        <v>3.625814080005767</v>
+        <v>3.625814080005824</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>13.23603454357585</v>
+        <v>13.2360345435759</v>
       </c>
       <c r="V44" t="n">
-        <v>83.96625283409622</v>
+        <v>83.96625283409628</v>
       </c>
       <c r="W44" t="n">
-        <v>100.9829330507111</v>
+        <v>100.9829330507112</v>
       </c>
       <c r="X44" t="n">
-        <v>122.8691835196503</v>
+        <v>122.8691835196504</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.3720366433941</v>
+        <v>145.3720366433942</v>
       </c>
     </row>
     <row r="45">
@@ -4053,19 +4053,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>40.86628511244827</v>
       </c>
       <c r="C45" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>130.5548306170636</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.036068026875146</v>
+        <v>6.036068026875149</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4110,19 +4110,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0.3141091995091076</v>
+        <v>0.3141091995091644</v>
       </c>
       <c r="V45" t="n">
-        <v>3.735390140346453</v>
+        <v>3.73539014034651</v>
       </c>
       <c r="W45" t="n">
-        <v>29.7910528019558</v>
+        <v>29.79105280195586</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>51.74272764028809</v>
+        <v>51.74272764028814</v>
       </c>
       <c r="V46" t="n">
-        <v>8.195484409394112</v>
+        <v>8.195484409394169</v>
       </c>
       <c r="W46" t="n">
-        <v>53.39717631427953</v>
+        <v>53.39717631427959</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>169.3518017762264</v>
+        <v>128.7849919068297</v>
       </c>
       <c r="C11" t="n">
-        <v>169.3518017762264</v>
+        <v>44.37032839520585</v>
       </c>
       <c r="D11" t="n">
-        <v>169.3518017762264</v>
+        <v>44.37032839520585</v>
       </c>
       <c r="E11" t="n">
-        <v>169.3518017762264</v>
+        <v>44.37032839520585</v>
       </c>
       <c r="F11" t="n">
-        <v>132.0690234120231</v>
+        <v>44.37032839520585</v>
       </c>
       <c r="G11" t="n">
-        <v>132.0690234120231</v>
+        <v>44.37032839520585</v>
       </c>
       <c r="H11" t="n">
-        <v>44.37032839520595</v>
+        <v>44.37032839520585</v>
       </c>
       <c r="I11" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="J11" t="n">
-        <v>92.65698381444341</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="K11" t="n">
-        <v>92.65698381444341</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="L11" t="n">
-        <v>141.2841651145679</v>
+        <v>55.57291794545645</v>
       </c>
       <c r="M11" t="n">
-        <v>224.2672334502247</v>
+        <v>138.5559862811132</v>
       </c>
       <c r="N11" t="n">
-        <v>301.7506185706848</v>
+        <v>216.0393714015734</v>
       </c>
       <c r="O11" t="n">
-        <v>338.0066232220123</v>
+        <v>252.2953760529008</v>
       </c>
       <c r="P11" t="n">
-        <v>338.0066232220123</v>
+        <v>338.0066232220118</v>
       </c>
       <c r="Q11" t="n">
-        <v>338.0066232220123</v>
+        <v>338.0066232220118</v>
       </c>
       <c r="R11" t="n">
-        <v>347.2868322665961</v>
+        <v>347.2868322665958</v>
       </c>
       <c r="S11" t="n">
-        <v>323.2969954304435</v>
+        <v>323.2969954304432</v>
       </c>
       <c r="T11" t="n">
-        <v>304.1823819404641</v>
+        <v>304.1823819404639</v>
       </c>
       <c r="U11" t="n">
-        <v>257.0504967930436</v>
+        <v>304.1823819404639</v>
       </c>
       <c r="V11" t="n">
-        <v>257.0504967930436</v>
+        <v>216.4836869236468</v>
       </c>
       <c r="W11" t="n">
-        <v>257.0504967930436</v>
+        <v>216.4836869236468</v>
       </c>
       <c r="X11" t="n">
-        <v>257.0504967930436</v>
+        <v>216.4836869236468</v>
       </c>
       <c r="Y11" t="n">
-        <v>169.3518017762264</v>
+        <v>216.4836869236468</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.945736645331922</v>
+        <v>72.39114014302163</v>
       </c>
       <c r="C12" t="n">
-        <v>6.945736645331922</v>
+        <v>72.39114014302163</v>
       </c>
       <c r="D12" t="n">
-        <v>6.945736645331922</v>
+        <v>72.39114014302163</v>
       </c>
       <c r="E12" t="n">
-        <v>6.945736645331922</v>
+        <v>72.39114014302163</v>
       </c>
       <c r="F12" t="n">
-        <v>6.945736645331922</v>
+        <v>72.39114014302163</v>
       </c>
       <c r="G12" t="n">
-        <v>6.945736645331922</v>
+        <v>72.39114014302163</v>
       </c>
       <c r="H12" t="n">
-        <v>6.945736645331922</v>
+        <v>72.39114014302163</v>
       </c>
       <c r="I12" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="J12" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="K12" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="L12" t="n">
-        <v>92.89922763131445</v>
+        <v>92.89922763131436</v>
       </c>
       <c r="M12" t="n">
-        <v>178.852718617297</v>
+        <v>178.8527186172968</v>
       </c>
       <c r="N12" t="n">
-        <v>261.3333412806136</v>
+        <v>264.8062096032792</v>
       </c>
       <c r="O12" t="n">
-        <v>347.2868322665961</v>
+        <v>347.2868322665958</v>
       </c>
       <c r="P12" t="n">
-        <v>347.2868322665961</v>
+        <v>347.2868322665958</v>
       </c>
       <c r="Q12" t="n">
-        <v>341.1897938556111</v>
+        <v>341.1897938556107</v>
       </c>
       <c r="R12" t="n">
-        <v>253.4910988387939</v>
+        <v>341.1897938556107</v>
       </c>
       <c r="S12" t="n">
-        <v>188.0456953411044</v>
+        <v>341.1897938556107</v>
       </c>
       <c r="T12" t="n">
-        <v>176.4743729352748</v>
+        <v>329.6184714497812</v>
       </c>
       <c r="U12" t="n">
-        <v>142.3949376303469</v>
+        <v>295.5390361448534</v>
       </c>
       <c r="V12" t="n">
-        <v>104.8596629912399</v>
+        <v>258.0037615057465</v>
       </c>
       <c r="W12" t="n">
-        <v>41.00553717879013</v>
+        <v>194.1496356932968</v>
       </c>
       <c r="X12" t="n">
-        <v>27.04198625274537</v>
+        <v>180.1860847672521</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.945736645331922</v>
+        <v>160.0898351598387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.55909421947295</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="C13" t="n">
-        <v>69.22059408967976</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="D13" t="n">
-        <v>69.22059408967976</v>
+        <v>64.66902192958784</v>
       </c>
       <c r="E13" t="n">
-        <v>130.4153233220364</v>
+        <v>125.8637511619446</v>
       </c>
       <c r="F13" t="n">
-        <v>194.3318189582337</v>
+        <v>125.8637511619446</v>
       </c>
       <c r="G13" t="n">
-        <v>194.3318189582337</v>
+        <v>125.8637511619446</v>
       </c>
       <c r="H13" t="n">
-        <v>231.6679518459633</v>
+        <v>125.8637511619446</v>
       </c>
       <c r="I13" t="n">
-        <v>270.0805788106205</v>
+        <v>164.2763781266018</v>
       </c>
       <c r="J13" t="n">
-        <v>307.4462127025366</v>
+        <v>247.0763806388678</v>
       </c>
       <c r="K13" t="n">
-        <v>307.4462127025366</v>
+        <v>307.4462127025358</v>
       </c>
       <c r="L13" t="n">
-        <v>307.4462127025366</v>
+        <v>307.4462127025358</v>
       </c>
       <c r="M13" t="n">
-        <v>307.4462127025366</v>
+        <v>307.4462127025358</v>
       </c>
       <c r="N13" t="n">
-        <v>307.4462127025366</v>
+        <v>307.4462127025358</v>
       </c>
       <c r="O13" t="n">
-        <v>307.4462127025366</v>
+        <v>307.4462127025358</v>
       </c>
       <c r="P13" t="n">
-        <v>307.4462127025366</v>
+        <v>307.4462127025358</v>
       </c>
       <c r="Q13" t="n">
-        <v>307.4462127025366</v>
+        <v>307.4462127025358</v>
       </c>
       <c r="R13" t="n">
-        <v>307.7483064896375</v>
+        <v>307.7483064896368</v>
       </c>
       <c r="S13" t="n">
-        <v>275.5728947834228</v>
+        <v>275.5728947834223</v>
       </c>
       <c r="T13" t="n">
-        <v>255.1191849262497</v>
+        <v>255.1191849262492</v>
       </c>
       <c r="U13" t="n">
-        <v>169.0916501861915</v>
+        <v>169.0916501861911</v>
       </c>
       <c r="V13" t="n">
-        <v>127.0512298207737</v>
+        <v>127.0512298207734</v>
       </c>
       <c r="W13" t="n">
-        <v>39.35253480395652</v>
+        <v>39.35253480395633</v>
       </c>
       <c r="X13" t="n">
-        <v>20.73591219228356</v>
+        <v>20.73591219228346</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>193.34163861238</v>
+        <v>219.7677184288403</v>
       </c>
       <c r="C14" t="n">
-        <v>105.6429435955628</v>
+        <v>219.7677184288403</v>
       </c>
       <c r="D14" t="n">
-        <v>105.6429435955628</v>
+        <v>132.0690234120231</v>
       </c>
       <c r="E14" t="n">
-        <v>17.94424857874563</v>
+        <v>132.0690234120231</v>
       </c>
       <c r="F14" t="n">
-        <v>17.94424857874563</v>
+        <v>132.0690234120231</v>
       </c>
       <c r="G14" t="n">
-        <v>17.94424857874563</v>
+        <v>132.0690234120231</v>
       </c>
       <c r="H14" t="n">
-        <v>6.945736645331922</v>
+        <v>44.37032839520603</v>
       </c>
       <c r="I14" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="J14" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="K14" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="L14" t="n">
         <v>55.57291794545645</v>
@@ -5291,37 +5291,37 @@
         <v>216.0393714015734</v>
       </c>
       <c r="O14" t="n">
-        <v>301.9928623875559</v>
+        <v>252.2953760529008</v>
       </c>
       <c r="P14" t="n">
-        <v>301.9928623875559</v>
+        <v>252.2953760529008</v>
       </c>
       <c r="Q14" t="n">
-        <v>338.0066232220123</v>
+        <v>338.0066232220118</v>
       </c>
       <c r="R14" t="n">
-        <v>347.2868322665961</v>
+        <v>347.2868322665958</v>
       </c>
       <c r="S14" t="n">
-        <v>347.2868322665961</v>
+        <v>323.2969954304432</v>
       </c>
       <c r="T14" t="n">
-        <v>328.1722187766168</v>
+        <v>304.1823819404639</v>
       </c>
       <c r="U14" t="n">
-        <v>281.0403336291972</v>
+        <v>304.1823819404639</v>
       </c>
       <c r="V14" t="n">
-        <v>281.0403336291972</v>
+        <v>304.1823819404639</v>
       </c>
       <c r="W14" t="n">
-        <v>281.0403336291972</v>
+        <v>304.1823819404639</v>
       </c>
       <c r="X14" t="n">
-        <v>281.0403336291972</v>
+        <v>304.1823819404639</v>
       </c>
       <c r="Y14" t="n">
-        <v>281.0403336291972</v>
+        <v>304.1823819404639</v>
       </c>
     </row>
     <row r="15">
@@ -5331,67 +5331,67 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>160.0898351598386</v>
+        <v>160.0898351598387</v>
       </c>
       <c r="C15" t="n">
-        <v>160.0898351598386</v>
+        <v>160.0898351598387</v>
       </c>
       <c r="D15" t="n">
-        <v>160.0898351598386</v>
+        <v>160.0898351598387</v>
       </c>
       <c r="E15" t="n">
-        <v>160.0898351598386</v>
+        <v>160.0898351598387</v>
       </c>
       <c r="F15" t="n">
-        <v>147.0266010482419</v>
+        <v>160.0898351598387</v>
       </c>
       <c r="G15" t="n">
-        <v>147.0266010482419</v>
+        <v>160.0898351598387</v>
       </c>
       <c r="H15" t="n">
-        <v>147.0266010482419</v>
+        <v>147.0266010482418</v>
       </c>
       <c r="I15" t="n">
         <v>59.3279060314247</v>
       </c>
       <c r="J15" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="K15" t="n">
-        <v>45.95276840508906</v>
+        <v>45.95276840508905</v>
       </c>
       <c r="L15" t="n">
-        <v>131.9062593910716</v>
+        <v>45.95276840508905</v>
       </c>
       <c r="M15" t="n">
-        <v>175.3798502946311</v>
+        <v>131.9062593910715</v>
       </c>
       <c r="N15" t="n">
-        <v>261.3333412806136</v>
+        <v>176.4739921891509</v>
       </c>
       <c r="O15" t="n">
-        <v>347.2868322665961</v>
+        <v>262.4274831751334</v>
       </c>
       <c r="P15" t="n">
-        <v>347.2868322665961</v>
+        <v>347.2868322665958</v>
       </c>
       <c r="Q15" t="n">
-        <v>341.1897938556111</v>
+        <v>341.1897938556107</v>
       </c>
       <c r="R15" t="n">
-        <v>341.1897938556111</v>
+        <v>341.1897938556107</v>
       </c>
       <c r="S15" t="n">
-        <v>341.1897938556111</v>
+        <v>341.1897938556107</v>
       </c>
       <c r="T15" t="n">
-        <v>329.6184714497815</v>
+        <v>329.6184714497812</v>
       </c>
       <c r="U15" t="n">
-        <v>295.5390361448536</v>
+        <v>295.5390361448534</v>
       </c>
       <c r="V15" t="n">
-        <v>258.0037615057466</v>
+        <v>258.0037615057465</v>
       </c>
       <c r="W15" t="n">
         <v>194.1496356932968</v>
@@ -5400,7 +5400,7 @@
         <v>180.1860847672521</v>
       </c>
       <c r="Y15" t="n">
-        <v>160.0898351598386</v>
+        <v>160.0898351598387</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="C16" t="n">
-        <v>6.945736645331922</v>
+        <v>43.60723651553881</v>
       </c>
       <c r="D16" t="n">
-        <v>64.66902192958776</v>
+        <v>101.3305217997947</v>
       </c>
       <c r="E16" t="n">
-        <v>64.66902192958776</v>
+        <v>162.5252510321515</v>
       </c>
       <c r="F16" t="n">
-        <v>64.66902192958776</v>
+        <v>226.4417466683489</v>
       </c>
       <c r="G16" t="n">
-        <v>64.66902192958776</v>
+        <v>226.4417466683489</v>
       </c>
       <c r="H16" t="n">
-        <v>102.0051548173174</v>
+        <v>226.4417466683489</v>
       </c>
       <c r="I16" t="n">
-        <v>140.4177817819745</v>
+        <v>264.854373633006</v>
       </c>
       <c r="J16" t="n">
-        <v>140.4177817819745</v>
+        <v>307.4462127025358</v>
       </c>
       <c r="K16" t="n">
-        <v>140.4177817819745</v>
+        <v>307.4462127025358</v>
       </c>
       <c r="L16" t="n">
-        <v>226.371272767957</v>
+        <v>307.4462127025358</v>
       </c>
       <c r="M16" t="n">
-        <v>226.371272767957</v>
+        <v>307.4462127025358</v>
       </c>
       <c r="N16" t="n">
-        <v>226.371272767957</v>
+        <v>307.4462127025358</v>
       </c>
       <c r="O16" t="n">
-        <v>307.7483064896375</v>
+        <v>307.4462127025358</v>
       </c>
       <c r="P16" t="n">
-        <v>307.7483064896375</v>
+        <v>307.4462127025358</v>
       </c>
       <c r="Q16" t="n">
-        <v>307.7483064896375</v>
+        <v>307.4462127025358</v>
       </c>
       <c r="R16" t="n">
-        <v>307.7483064896375</v>
+        <v>307.7483064896368</v>
       </c>
       <c r="S16" t="n">
-        <v>275.5728947834228</v>
+        <v>275.5728947834223</v>
       </c>
       <c r="T16" t="n">
-        <v>255.1191849262497</v>
+        <v>255.1191849262492</v>
       </c>
       <c r="U16" t="n">
-        <v>169.0916501861915</v>
+        <v>169.0916501861911</v>
       </c>
       <c r="V16" t="n">
-        <v>127.0512298207737</v>
+        <v>127.0512298207734</v>
       </c>
       <c r="W16" t="n">
-        <v>39.35253480395652</v>
+        <v>39.35253480395633</v>
       </c>
       <c r="X16" t="n">
-        <v>20.73591219228356</v>
+        <v>20.73591219228346</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>230.2616036014668</v>
+        <v>230.261603601467</v>
       </c>
       <c r="C17" t="n">
-        <v>214.4472147160029</v>
+        <v>214.4472147160033</v>
       </c>
       <c r="D17" t="n">
-        <v>211.1917528395812</v>
+        <v>211.1917528395815</v>
       </c>
       <c r="E17" t="n">
-        <v>173.8890662970897</v>
+        <v>173.8890662970901</v>
       </c>
       <c r="F17" t="n">
-        <v>104.5456347259342</v>
+        <v>104.5456347259347</v>
       </c>
       <c r="G17" t="n">
-        <v>19.41763633921476</v>
+        <v>19.41763633921464</v>
       </c>
       <c r="H17" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="I17" t="n">
-        <v>88.40441877136388</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="J17" t="n">
-        <v>88.40441877136388</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="K17" t="n">
-        <v>88.40441877136388</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="L17" t="n">
-        <v>137.0316000714884</v>
+        <v>55.57291794545645</v>
       </c>
       <c r="M17" t="n">
-        <v>220.0146684071452</v>
+        <v>138.5559862811132</v>
       </c>
       <c r="N17" t="n">
-        <v>297.4980535276053</v>
+        <v>216.0393714015734</v>
       </c>
       <c r="O17" t="n">
-        <v>333.7540581789327</v>
+        <v>252.2953760529008</v>
       </c>
       <c r="P17" t="n">
-        <v>333.7540581789327</v>
+        <v>252.2953760529008</v>
       </c>
       <c r="Q17" t="n">
-        <v>333.7540581789327</v>
+        <v>252.2953760529008</v>
       </c>
       <c r="R17" t="n">
-        <v>333.7540581789327</v>
+        <v>252.2953760529008</v>
       </c>
       <c r="S17" t="n">
-        <v>333.7540581789327</v>
+        <v>252.2953760529008</v>
       </c>
       <c r="T17" t="n">
-        <v>333.7540581789327</v>
+        <v>252.2953760529008</v>
       </c>
       <c r="U17" t="n">
-        <v>333.7540581789327</v>
+        <v>335.8510662481794</v>
       </c>
       <c r="V17" t="n">
-        <v>347.2868322665961</v>
+        <v>347.2868322665958</v>
       </c>
       <c r="W17" t="n">
-        <v>343.9058106088211</v>
+        <v>343.9058106088208</v>
       </c>
       <c r="X17" t="n">
-        <v>318.4174652450469</v>
+        <v>318.4174652450467</v>
       </c>
       <c r="Y17" t="n">
-        <v>270.1989652108241</v>
+        <v>270.1989652108242</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>234.7252960650591</v>
+        <v>234.7252960650589</v>
       </c>
       <c r="C18" t="n">
-        <v>147.0266010482419</v>
+        <v>234.7252960650589</v>
       </c>
       <c r="D18" t="n">
-        <v>147.0266010482419</v>
+        <v>234.7252960650589</v>
       </c>
       <c r="E18" t="n">
-        <v>59.3279060314247</v>
+        <v>234.7252960650589</v>
       </c>
       <c r="F18" t="n">
-        <v>59.3279060314247</v>
+        <v>234.7252960650589</v>
       </c>
       <c r="G18" t="n">
-        <v>59.3279060314247</v>
+        <v>147.0266010482418</v>
       </c>
       <c r="H18" t="n">
-        <v>59.3279060314247</v>
+        <v>147.0266010482418</v>
       </c>
       <c r="I18" t="n">
         <v>59.3279060314247</v>
       </c>
       <c r="J18" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="K18" t="n">
-        <v>6.945736645331922</v>
+        <v>45.95276840508905</v>
       </c>
       <c r="L18" t="n">
-        <v>92.89922763131445</v>
+        <v>131.9062593910715</v>
       </c>
       <c r="M18" t="n">
-        <v>176.4739921891512</v>
+        <v>217.859750377054</v>
       </c>
       <c r="N18" t="n">
-        <v>176.4739921891512</v>
+        <v>217.859750377054</v>
       </c>
       <c r="O18" t="n">
-        <v>262.4274831751337</v>
+        <v>262.4274831751334</v>
       </c>
       <c r="P18" t="n">
-        <v>347.2868322665961</v>
+        <v>347.2868322665958</v>
       </c>
       <c r="Q18" t="n">
-        <v>341.1897938556111</v>
+        <v>341.1897938556107</v>
       </c>
       <c r="R18" t="n">
-        <v>253.4910988387939</v>
+        <v>253.4910988387936</v>
       </c>
       <c r="S18" t="n">
-        <v>253.4910988387939</v>
+        <v>234.7252960650589</v>
       </c>
       <c r="T18" t="n">
-        <v>234.7252960650591</v>
+        <v>234.7252960650589</v>
       </c>
       <c r="U18" t="n">
-        <v>234.7252960650591</v>
+        <v>234.7252960650589</v>
       </c>
       <c r="V18" t="n">
-        <v>234.7252960650591</v>
+        <v>234.7252960650589</v>
       </c>
       <c r="W18" t="n">
-        <v>234.7252960650591</v>
+        <v>234.7252960650589</v>
       </c>
       <c r="X18" t="n">
-        <v>234.7252960650591</v>
+        <v>234.7252960650589</v>
       </c>
       <c r="Y18" t="n">
-        <v>234.7252960650591</v>
+        <v>234.7252960650589</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="C19" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="D19" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="E19" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="F19" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="G19" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="H19" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="I19" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="J19" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="K19" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="L19" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="M19" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="N19" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="O19" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="P19" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="Q19" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="R19" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="S19" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="T19" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="U19" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="V19" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="W19" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="X19" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>230.2616036014672</v>
+        <v>230.2616036014673</v>
       </c>
       <c r="C20" t="n">
-        <v>214.4472147160035</v>
+        <v>214.4472147160034</v>
       </c>
       <c r="D20" t="n">
         <v>211.1917528395816</v>
       </c>
       <c r="E20" t="n">
-        <v>173.8890662970902</v>
+        <v>173.8890662970903</v>
       </c>
       <c r="F20" t="n">
-        <v>104.5456347259346</v>
+        <v>104.5456347259349</v>
       </c>
       <c r="G20" t="n">
-        <v>19.4176363392147</v>
+        <v>19.41763633921464</v>
       </c>
       <c r="H20" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="I20" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="J20" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="K20" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="L20" t="n">
         <v>55.57291794545645</v>
@@ -5780,22 +5780,22 @@
         <v>252.2953760529008</v>
       </c>
       <c r="T20" t="n">
-        <v>252.2953760529008</v>
+        <v>333.7540581789323</v>
       </c>
       <c r="U20" t="n">
-        <v>333.7540581789327</v>
+        <v>333.7540581789323</v>
       </c>
       <c r="V20" t="n">
-        <v>347.2868322665961</v>
+        <v>347.2868322665958</v>
       </c>
       <c r="W20" t="n">
-        <v>343.9058106088211</v>
+        <v>343.905810608821</v>
       </c>
       <c r="X20" t="n">
-        <v>318.4174652450469</v>
+        <v>318.417465245047</v>
       </c>
       <c r="Y20" t="n">
-        <v>270.1989652108244</v>
+        <v>270.1989652108245</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>341.1897938556111</v>
+        <v>341.1897938556107</v>
       </c>
       <c r="C21" t="n">
-        <v>341.1897938556111</v>
+        <v>341.1897938556107</v>
       </c>
       <c r="D21" t="n">
-        <v>341.1897938556111</v>
+        <v>341.1897938556107</v>
       </c>
       <c r="E21" t="n">
-        <v>341.1897938556111</v>
+        <v>322.423991081876</v>
       </c>
       <c r="F21" t="n">
-        <v>322.4239910818763</v>
+        <v>234.7252960650589</v>
       </c>
       <c r="G21" t="n">
-        <v>234.7252960650591</v>
+        <v>147.0266010482418</v>
       </c>
       <c r="H21" t="n">
-        <v>147.0266010482419</v>
+        <v>147.0266010482418</v>
       </c>
       <c r="I21" t="n">
         <v>59.3279060314247</v>
       </c>
       <c r="J21" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="K21" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="L21" t="n">
-        <v>92.89922763131445</v>
+        <v>92.89922763131436</v>
       </c>
       <c r="M21" t="n">
-        <v>178.852718617297</v>
+        <v>178.8527186172968</v>
       </c>
       <c r="N21" t="n">
-        <v>264.8062096032795</v>
+        <v>264.8062096032792</v>
       </c>
       <c r="O21" t="n">
-        <v>347.2868322665961</v>
+        <v>347.2868322665958</v>
       </c>
       <c r="P21" t="n">
-        <v>347.2868322665961</v>
+        <v>347.2868322665958</v>
       </c>
       <c r="Q21" t="n">
-        <v>341.1897938556111</v>
+        <v>341.1897938556107</v>
       </c>
       <c r="R21" t="n">
-        <v>341.1897938556111</v>
+        <v>341.1897938556107</v>
       </c>
       <c r="S21" t="n">
-        <v>341.1897938556111</v>
+        <v>341.1897938556107</v>
       </c>
       <c r="T21" t="n">
-        <v>341.1897938556111</v>
+        <v>341.1897938556107</v>
       </c>
       <c r="U21" t="n">
-        <v>341.1897938556111</v>
+        <v>341.1897938556107</v>
       </c>
       <c r="V21" t="n">
-        <v>341.1897938556111</v>
+        <v>341.1897938556107</v>
       </c>
       <c r="W21" t="n">
-        <v>341.1897938556111</v>
+        <v>341.1897938556107</v>
       </c>
       <c r="X21" t="n">
-        <v>341.1897938556111</v>
+        <v>341.1897938556107</v>
       </c>
       <c r="Y21" t="n">
-        <v>341.1897938556111</v>
+        <v>341.1897938556107</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="C22" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="D22" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="E22" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="F22" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="G22" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="H22" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="I22" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="J22" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="K22" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="L22" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="M22" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="N22" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="O22" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="P22" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="Q22" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="R22" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="S22" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="T22" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="U22" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="V22" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="W22" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="X22" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.945736645331922</v>
+        <v>6.945736645331915</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>230.2616036014666</v>
+        <v>230.261603601467</v>
       </c>
       <c r="C23" t="n">
-        <v>214.4472147160029</v>
+        <v>214.4472147160034</v>
       </c>
       <c r="D23" t="n">
-        <v>211.1917528395809</v>
+        <v>211.1917528395816</v>
       </c>
       <c r="E23" t="n">
-        <v>173.8890662970895</v>
+        <v>173.8890662970902</v>
       </c>
       <c r="F23" t="n">
-        <v>104.545634725934</v>
+        <v>104.5456347259347</v>
       </c>
       <c r="G23" t="n">
-        <v>19.41763633921468</v>
+        <v>19.41763633921464</v>
       </c>
       <c r="H23" t="n">
-        <v>6.945736645331905</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="I23" t="n">
-        <v>6.945736645331905</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="J23" t="n">
-        <v>6.945736645331905</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="K23" t="n">
-        <v>6.945736645331905</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="L23" t="n">
-        <v>55.57291794545644</v>
+        <v>55.57291794545645</v>
       </c>
       <c r="M23" t="n">
         <v>138.5559862811132</v>
@@ -6020,19 +6020,19 @@
         <v>252.2953760529008</v>
       </c>
       <c r="U23" t="n">
-        <v>333.7540581789318</v>
+        <v>335.8510662481794</v>
       </c>
       <c r="V23" t="n">
-        <v>347.2868322665952</v>
+        <v>347.2868322665957</v>
       </c>
       <c r="W23" t="n">
-        <v>343.9058106088204</v>
+        <v>343.9058106088208</v>
       </c>
       <c r="X23" t="n">
-        <v>318.4174652450463</v>
+        <v>318.4174652450466</v>
       </c>
       <c r="Y23" t="n">
-        <v>270.1989652108238</v>
+        <v>270.1989652108242</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>341.1897938556102</v>
+        <v>341.1897938556107</v>
       </c>
       <c r="C24" t="n">
-        <v>341.1897938556102</v>
+        <v>341.1897938556107</v>
       </c>
       <c r="D24" t="n">
-        <v>341.1897938556102</v>
+        <v>322.423991081876</v>
       </c>
       <c r="E24" t="n">
-        <v>322.4239910818757</v>
+        <v>234.7252960650589</v>
       </c>
       <c r="F24" t="n">
-        <v>234.7252960650587</v>
+        <v>147.0266010482418</v>
       </c>
       <c r="G24" t="n">
-        <v>147.0266010482417</v>
+        <v>59.3279060314247</v>
       </c>
       <c r="H24" t="n">
-        <v>147.0266010482417</v>
+        <v>59.3279060314247</v>
       </c>
       <c r="I24" t="n">
-        <v>59.32790603142468</v>
+        <v>59.3279060314247</v>
       </c>
       <c r="J24" t="n">
-        <v>6.945736645331905</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="K24" t="n">
-        <v>6.945736645331905</v>
+        <v>45.95276840508905</v>
       </c>
       <c r="L24" t="n">
-        <v>92.89922763131423</v>
+        <v>131.9062593910715</v>
       </c>
       <c r="M24" t="n">
-        <v>178.8527186172965</v>
+        <v>131.9062593910715</v>
       </c>
       <c r="N24" t="n">
-        <v>264.8062096032789</v>
+        <v>176.4739921891509</v>
       </c>
       <c r="O24" t="n">
-        <v>347.2868322665952</v>
+        <v>262.4274831751333</v>
       </c>
       <c r="P24" t="n">
-        <v>347.2868322665952</v>
+        <v>347.2868322665957</v>
       </c>
       <c r="Q24" t="n">
-        <v>341.1897938556102</v>
+        <v>341.1897938556107</v>
       </c>
       <c r="R24" t="n">
-        <v>341.1897938556102</v>
+        <v>341.1897938556107</v>
       </c>
       <c r="S24" t="n">
-        <v>341.1897938556102</v>
+        <v>341.1897938556107</v>
       </c>
       <c r="T24" t="n">
-        <v>341.1897938556102</v>
+        <v>341.1897938556107</v>
       </c>
       <c r="U24" t="n">
-        <v>341.1897938556102</v>
+        <v>341.1897938556107</v>
       </c>
       <c r="V24" t="n">
-        <v>341.1897938556102</v>
+        <v>341.1897938556107</v>
       </c>
       <c r="W24" t="n">
-        <v>341.1897938556102</v>
+        <v>341.1897938556107</v>
       </c>
       <c r="X24" t="n">
-        <v>341.1897938556102</v>
+        <v>341.1897938556107</v>
       </c>
       <c r="Y24" t="n">
-        <v>341.1897938556102</v>
+        <v>341.1897938556107</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.945736645331905</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="C25" t="n">
-        <v>6.945736645331905</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="D25" t="n">
-        <v>6.945736645331905</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="E25" t="n">
-        <v>6.945736645331905</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="F25" t="n">
-        <v>6.945736645331905</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="G25" t="n">
-        <v>6.945736645331905</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="H25" t="n">
-        <v>6.945736645331905</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="I25" t="n">
-        <v>6.945736645331905</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="J25" t="n">
-        <v>6.945736645331905</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="K25" t="n">
-        <v>6.945736645331905</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="L25" t="n">
-        <v>6.945736645331905</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="M25" t="n">
-        <v>6.945736645331905</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="N25" t="n">
-        <v>6.945736645331905</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="O25" t="n">
-        <v>6.945736645331905</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="P25" t="n">
-        <v>6.945736645331905</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.945736645331905</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="R25" t="n">
-        <v>6.945736645331905</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="S25" t="n">
-        <v>6.945736645331905</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="T25" t="n">
-        <v>6.945736645331905</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="U25" t="n">
-        <v>6.945736645331905</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="V25" t="n">
-        <v>6.945736645331905</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="W25" t="n">
-        <v>6.945736645331905</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="X25" t="n">
-        <v>6.945736645331905</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.945736645331905</v>
+        <v>6.945736645331914</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1025.028630475681</v>
+        <v>1025.028630475683</v>
       </c>
       <c r="C26" t="n">
-        <v>886.2749037794676</v>
+        <v>886.2749037794694</v>
       </c>
       <c r="D26" t="n">
-        <v>760.0801040922967</v>
+        <v>760.0801040922981</v>
       </c>
       <c r="E26" t="n">
-        <v>599.838079739056</v>
+        <v>599.8380797390573</v>
       </c>
       <c r="F26" t="n">
-        <v>407.5553103571513</v>
+        <v>407.5553103571526</v>
       </c>
       <c r="G26" t="n">
-        <v>199.4879741596822</v>
+        <v>199.4879741596835</v>
       </c>
       <c r="H26" t="n">
-        <v>64.07673665504993</v>
+        <v>64.07673665505126</v>
       </c>
       <c r="I26" t="n">
-        <v>36.09690139935928</v>
+        <v>36.09690139935931</v>
       </c>
       <c r="J26" t="n">
         <v>171.8193014227423</v>
       </c>
       <c r="K26" t="n">
-        <v>377.4069368927943</v>
+        <v>377.4069368927942</v>
       </c>
       <c r="L26" t="n">
-        <v>636.7450330653252</v>
+        <v>636.7450330653271</v>
       </c>
       <c r="M26" t="n">
-        <v>930.4390162733905</v>
+        <v>930.4390162733924</v>
       </c>
       <c r="N26" t="n">
-        <v>1218.633316266259</v>
+        <v>1218.633316266261</v>
       </c>
       <c r="O26" t="n">
-        <v>1465.600235789995</v>
+        <v>1465.600235789997</v>
       </c>
       <c r="P26" t="n">
-        <v>1663.107239204594</v>
+        <v>1663.107239204595</v>
       </c>
       <c r="Q26" t="n">
-        <v>1786.308055083431</v>
+        <v>1786.308055083433</v>
       </c>
       <c r="R26" t="n">
-        <v>1804.845069967964</v>
+        <v>1804.845069967966</v>
       </c>
       <c r="S26" t="n">
-        <v>1790.299989625994</v>
+        <v>1790.299989625997</v>
       </c>
       <c r="T26" t="n">
-        <v>1780.630132630199</v>
+        <v>1780.630132630201</v>
       </c>
       <c r="U26" t="n">
-        <v>1742.943003976963</v>
+        <v>1742.943003976965</v>
       </c>
       <c r="V26" t="n">
-        <v>1633.811210383807</v>
+        <v>1633.811210383809</v>
       </c>
       <c r="W26" t="n">
-        <v>1507.490850915283</v>
+        <v>1507.490850915285</v>
       </c>
       <c r="X26" t="n">
-        <v>1359.063167740759</v>
+        <v>1359.063167740761</v>
       </c>
       <c r="Y26" t="n">
-        <v>1187.905329895787</v>
+        <v>1187.905329895789</v>
       </c>
     </row>
     <row r="27">
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>36.09690139935928</v>
+        <v>36.09690139935931</v>
       </c>
       <c r="C27" t="n">
-        <v>36.09690139935928</v>
+        <v>36.09690139935931</v>
       </c>
       <c r="D27" t="n">
-        <v>36.09690139935928</v>
+        <v>36.09690139935931</v>
       </c>
       <c r="E27" t="n">
-        <v>36.09690139935928</v>
+        <v>36.09690139935931</v>
       </c>
       <c r="F27" t="n">
-        <v>36.09690139935928</v>
+        <v>36.09690139935931</v>
       </c>
       <c r="G27" t="n">
-        <v>36.09690139935928</v>
+        <v>36.09690139935931</v>
       </c>
       <c r="H27" t="n">
-        <v>36.09690139935928</v>
+        <v>36.09690139935931</v>
       </c>
       <c r="I27" t="n">
-        <v>36.09690139935928</v>
+        <v>36.09690139935931</v>
       </c>
       <c r="J27" t="n">
-        <v>36.09690139935928</v>
+        <v>36.09690139935931</v>
       </c>
       <c r="K27" t="n">
-        <v>75.10393315911642</v>
+        <v>75.10393315911645</v>
       </c>
       <c r="L27" t="n">
         <v>193.8402434614216</v>
@@ -6318,37 +6318,37 @@
         <v>583.7405939045457</v>
       </c>
       <c r="O27" t="n">
-        <v>716.9793531582077</v>
+        <v>716.9793531582076</v>
       </c>
       <c r="P27" t="n">
-        <v>801.8387022496701</v>
+        <v>801.83870224967</v>
       </c>
       <c r="Q27" t="n">
-        <v>801.8387022496701</v>
+        <v>795.741663838685</v>
       </c>
       <c r="R27" t="n">
-        <v>801.8387022496701</v>
+        <v>795.741663838685</v>
       </c>
       <c r="S27" t="n">
-        <v>801.8387022496701</v>
+        <v>795.741663838685</v>
       </c>
       <c r="T27" t="n">
-        <v>799.7121363380238</v>
+        <v>793.6150979270387</v>
       </c>
       <c r="U27" t="n">
-        <v>775.0774575272793</v>
+        <v>563.7454763105254</v>
       </c>
       <c r="V27" t="n">
-        <v>531.9977394309134</v>
+        <v>320.6657582141596</v>
       </c>
       <c r="W27" t="n">
-        <v>262.5991701612047</v>
+        <v>51.26718894445086</v>
       </c>
       <c r="X27" t="n">
-        <v>46.74839451258938</v>
+        <v>46.74839451258944</v>
       </c>
       <c r="Y27" t="n">
-        <v>36.09690139935928</v>
+        <v>36.09690139935931</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>70.96706481344941</v>
+        <v>36.09690139935931</v>
       </c>
       <c r="C28" t="n">
-        <v>70.96706481344941</v>
+        <v>82.0152071095152</v>
       </c>
       <c r="D28" t="n">
-        <v>70.96706481344941</v>
+        <v>148.9952982337201</v>
       </c>
       <c r="E28" t="n">
-        <v>70.96706481344941</v>
+        <v>219.4468333060259</v>
       </c>
       <c r="F28" t="n">
-        <v>70.96706481344941</v>
+        <v>219.4468333060259</v>
       </c>
       <c r="G28" t="n">
-        <v>70.96706481344941</v>
+        <v>219.4468333060259</v>
       </c>
       <c r="H28" t="n">
-        <v>70.96706481344941</v>
+        <v>266.0397720337046</v>
       </c>
       <c r="I28" t="n">
-        <v>70.96706481344941</v>
+        <v>266.0397720337046</v>
       </c>
       <c r="J28" t="n">
-        <v>70.96706481344941</v>
+        <v>266.0397720337046</v>
       </c>
       <c r="K28" t="n">
-        <v>70.96706481344941</v>
+        <v>270.7861757843815</v>
       </c>
       <c r="L28" t="n">
-        <v>70.96706481344941</v>
+        <v>270.7861757843815</v>
       </c>
       <c r="M28" t="n">
-        <v>86.85454203663866</v>
+        <v>270.7861757843815</v>
       </c>
       <c r="N28" t="n">
-        <v>86.85454203663866</v>
+        <v>270.7861757843815</v>
       </c>
       <c r="O28" t="n">
-        <v>261.2272761573312</v>
+        <v>270.7861757843815</v>
       </c>
       <c r="P28" t="n">
-        <v>261.2272761573312</v>
+        <v>270.7861757843815</v>
       </c>
       <c r="Q28" t="n">
-        <v>261.2272761573312</v>
+        <v>270.7861757843815</v>
       </c>
       <c r="R28" t="n">
-        <v>270.7861757843813</v>
+        <v>270.7861757843815</v>
       </c>
       <c r="S28" t="n">
-        <v>248.05552057235</v>
+        <v>248.0555205723502</v>
       </c>
       <c r="T28" t="n">
-        <v>237.0465672093602</v>
+        <v>237.0465672093604</v>
       </c>
       <c r="U28" t="n">
-        <v>160.4637889634854</v>
+        <v>160.4637889634856</v>
       </c>
       <c r="V28" t="n">
-        <v>127.868125092251</v>
+        <v>127.8681250922511</v>
       </c>
       <c r="W28" t="n">
-        <v>49.61418656961716</v>
+        <v>49.61418656961725</v>
       </c>
       <c r="X28" t="n">
-        <v>40.44232045212756</v>
+        <v>40.44232045212762</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.09690139935928</v>
+        <v>36.09690139935931</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1025.02863047568</v>
+        <v>1025.028630475681</v>
       </c>
       <c r="C29" t="n">
-        <v>886.2749037794672</v>
+        <v>886.2749037794674</v>
       </c>
       <c r="D29" t="n">
-        <v>760.080104092296</v>
+        <v>760.0801040922961</v>
       </c>
       <c r="E29" t="n">
         <v>599.8380797390553</v>
       </c>
       <c r="F29" t="n">
-        <v>407.5553103571506</v>
+        <v>407.5553103571505</v>
       </c>
       <c r="G29" t="n">
-        <v>199.4879741596815</v>
+        <v>199.487974159682</v>
       </c>
       <c r="H29" t="n">
-        <v>64.07673665504994</v>
+        <v>64.07673665505</v>
       </c>
       <c r="I29" t="n">
         <v>36.0969013993593</v>
@@ -6464,19 +6464,19 @@
         <v>171.8193014227423</v>
       </c>
       <c r="K29" t="n">
-        <v>377.4069368927943</v>
+        <v>377.4069368927942</v>
       </c>
       <c r="L29" t="n">
-        <v>636.7450330653273</v>
+        <v>636.7450330653272</v>
       </c>
       <c r="M29" t="n">
-        <v>930.4390162733914</v>
+        <v>930.4390162733926</v>
       </c>
       <c r="N29" t="n">
-        <v>1218.63331626626</v>
+        <v>1218.633316266261</v>
       </c>
       <c r="O29" t="n">
-        <v>1465.600235789996</v>
+        <v>1465.600235789997</v>
       </c>
       <c r="P29" t="n">
         <v>1663.107239204595</v>
@@ -6494,13 +6494,13 @@
         <v>1780.630132630199</v>
       </c>
       <c r="U29" t="n">
-        <v>1742.943003976962</v>
+        <v>1742.943003976963</v>
       </c>
       <c r="V29" t="n">
-        <v>1633.811210383806</v>
+        <v>1633.811210383807</v>
       </c>
       <c r="W29" t="n">
-        <v>1507.490850915282</v>
+        <v>1507.490850915283</v>
       </c>
       <c r="X29" t="n">
         <v>1359.063167740759</v>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>677.4072825189978</v>
+        <v>196.8770176383275</v>
       </c>
       <c r="C30" t="n">
-        <v>487.9950082519615</v>
+        <v>196.8770176383275</v>
       </c>
       <c r="D30" t="n">
-        <v>327.2148920129932</v>
+        <v>36.0969013993593</v>
       </c>
       <c r="E30" t="n">
-        <v>153.6516881344077</v>
+        <v>36.0969013993593</v>
       </c>
       <c r="F30" t="n">
         <v>36.0969013993593</v>
@@ -6543,7 +6543,7 @@
         <v>36.0969013993593</v>
       </c>
       <c r="K30" t="n">
-        <v>75.10393315911644</v>
+        <v>75.10393315911642</v>
       </c>
       <c r="L30" t="n">
         <v>193.8402434614216</v>
@@ -6555,37 +6555,37 @@
         <v>583.7405939045457</v>
       </c>
       <c r="O30" t="n">
-        <v>716.9793531582077</v>
+        <v>716.9793531582076</v>
       </c>
       <c r="P30" t="n">
-        <v>801.8387022496701</v>
+        <v>801.83870224967</v>
       </c>
       <c r="Q30" t="n">
-        <v>801.8387022496701</v>
+        <v>795.741663838685</v>
       </c>
       <c r="R30" t="n">
-        <v>801.8387022496701</v>
+        <v>795.741663838685</v>
       </c>
       <c r="S30" t="n">
-        <v>801.8387022496701</v>
+        <v>795.741663838685</v>
       </c>
       <c r="T30" t="n">
-        <v>799.7121363380238</v>
+        <v>793.6150979270387</v>
       </c>
       <c r="U30" t="n">
-        <v>775.0774575272793</v>
+        <v>768.9804191162941</v>
       </c>
       <c r="V30" t="n">
-        <v>746.9869393823557</v>
+        <v>696.4350744045701</v>
       </c>
       <c r="W30" t="n">
-        <v>692.5775700640893</v>
+        <v>427.0365051348613</v>
       </c>
       <c r="X30" t="n">
-        <v>688.0587756322279</v>
+        <v>207.5285107515577</v>
       </c>
       <c r="Y30" t="n">
-        <v>677.4072825189978</v>
+        <v>196.8770176383275</v>
       </c>
     </row>
     <row r="31">
@@ -6604,64 +6604,64 @@
         <v>36.0969013993593</v>
       </c>
       <c r="E31" t="n">
-        <v>36.0969013993593</v>
+        <v>86.85454203663923</v>
       </c>
       <c r="F31" t="n">
-        <v>36.0969013993593</v>
+        <v>86.85454203663923</v>
       </c>
       <c r="G31" t="n">
-        <v>36.0969013993593</v>
+        <v>86.85454203663923</v>
       </c>
       <c r="H31" t="n">
-        <v>36.0969013993593</v>
+        <v>86.85454203663923</v>
       </c>
       <c r="I31" t="n">
-        <v>36.0969013993593</v>
+        <v>86.85454203663923</v>
       </c>
       <c r="J31" t="n">
-        <v>36.0969013993593</v>
+        <v>86.85454203663923</v>
       </c>
       <c r="K31" t="n">
-        <v>36.0969013993593</v>
+        <v>86.85454203663923</v>
       </c>
       <c r="L31" t="n">
-        <v>36.0969013993593</v>
+        <v>86.85454203663923</v>
       </c>
       <c r="M31" t="n">
-        <v>176.0074317242959</v>
+        <v>86.85454203663923</v>
       </c>
       <c r="N31" t="n">
-        <v>176.0074317242959</v>
+        <v>86.85454203663923</v>
       </c>
       <c r="O31" t="n">
-        <v>176.0074317242959</v>
+        <v>261.2272761573317</v>
       </c>
       <c r="P31" t="n">
-        <v>176.0074317242959</v>
+        <v>261.2272761573317</v>
       </c>
       <c r="Q31" t="n">
-        <v>261.2272761573313</v>
+        <v>261.2272761573317</v>
       </c>
       <c r="R31" t="n">
-        <v>270.7861757843813</v>
+        <v>270.7861757843817</v>
       </c>
       <c r="S31" t="n">
-        <v>248.05552057235</v>
+        <v>248.0555205723504</v>
       </c>
       <c r="T31" t="n">
-        <v>237.0465672093603</v>
+        <v>237.0465672093605</v>
       </c>
       <c r="U31" t="n">
-        <v>160.4637889634855</v>
+        <v>160.4637889634857</v>
       </c>
       <c r="V31" t="n">
-        <v>127.868125092251</v>
+        <v>127.8681250922512</v>
       </c>
       <c r="W31" t="n">
-        <v>49.61418656961717</v>
+        <v>49.61418656961729</v>
       </c>
       <c r="X31" t="n">
-        <v>40.44232045212757</v>
+        <v>40.44232045212763</v>
       </c>
       <c r="Y31" t="n">
         <v>36.0969013993593</v>
@@ -6677,46 +6677,46 @@
         <v>1025.028630475681</v>
       </c>
       <c r="C32" t="n">
-        <v>886.2749037794679</v>
+        <v>886.274903779468</v>
       </c>
       <c r="D32" t="n">
-        <v>760.0801040922966</v>
+        <v>760.0801040922968</v>
       </c>
       <c r="E32" t="n">
-        <v>599.8380797390557</v>
+        <v>599.8380797390561</v>
       </c>
       <c r="F32" t="n">
-        <v>407.5553103571509</v>
+        <v>407.5553103571514</v>
       </c>
       <c r="G32" t="n">
-        <v>199.4879741596817</v>
+        <v>199.487974159682</v>
       </c>
       <c r="H32" t="n">
-        <v>64.07673665505004</v>
+        <v>64.07673665504994</v>
       </c>
       <c r="I32" t="n">
         <v>36.0969013993593</v>
       </c>
       <c r="J32" t="n">
-        <v>171.8193014227425</v>
+        <v>171.8193014227423</v>
       </c>
       <c r="K32" t="n">
-        <v>377.4069368927944</v>
+        <v>377.4069368927943</v>
       </c>
       <c r="L32" t="n">
-        <v>636.7450330653276</v>
+        <v>636.7450330653273</v>
       </c>
       <c r="M32" t="n">
         <v>930.4390162733927</v>
       </c>
       <c r="N32" t="n">
-        <v>1218.633316266261</v>
+        <v>1218.63331626626</v>
       </c>
       <c r="O32" t="n">
-        <v>1465.600235789997</v>
+        <v>1465.600235789996</v>
       </c>
       <c r="P32" t="n">
-        <v>1663.107239204595</v>
+        <v>1663.107239204594</v>
       </c>
       <c r="Q32" t="n">
         <v>1786.308055083432</v>
@@ -6725,7 +6725,7 @@
         <v>1804.845069967965</v>
       </c>
       <c r="S32" t="n">
-        <v>1790.299989625995</v>
+        <v>1790.299989625996</v>
       </c>
       <c r="T32" t="n">
         <v>1780.630132630199</v>
@@ -6740,7 +6740,7 @@
         <v>1507.490850915283</v>
       </c>
       <c r="X32" t="n">
-        <v>1359.063167740759</v>
+        <v>1359.06316774076</v>
       </c>
       <c r="Y32" t="n">
         <v>1187.905329895788</v>
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>456.3210441565702</v>
+        <v>677.4072825189977</v>
       </c>
       <c r="C33" t="n">
-        <v>266.9087698895339</v>
+        <v>487.9950082519614</v>
       </c>
       <c r="D33" t="n">
-        <v>266.9087698895339</v>
+        <v>327.2148920129931</v>
       </c>
       <c r="E33" t="n">
-        <v>266.9087698895339</v>
+        <v>153.6516881344076</v>
       </c>
       <c r="F33" t="n">
-        <v>106.481053606778</v>
+        <v>36.0969013993593</v>
       </c>
       <c r="G33" t="n">
         <v>36.0969013993593</v>
@@ -6780,7 +6780,7 @@
         <v>36.0969013993593</v>
       </c>
       <c r="K33" t="n">
-        <v>75.10393315911644</v>
+        <v>75.10393315911642</v>
       </c>
       <c r="L33" t="n">
         <v>193.8402434614216</v>
@@ -6792,37 +6792,37 @@
         <v>583.7405939045457</v>
       </c>
       <c r="O33" t="n">
-        <v>716.9793531582077</v>
+        <v>716.9793531582076</v>
       </c>
       <c r="P33" t="n">
-        <v>801.8387022496701</v>
+        <v>801.83870224967</v>
       </c>
       <c r="Q33" t="n">
-        <v>795.7416638386851</v>
+        <v>801.83870224967</v>
       </c>
       <c r="R33" t="n">
-        <v>795.7416638386851</v>
+        <v>801.83870224967</v>
       </c>
       <c r="S33" t="n">
-        <v>795.7416638386851</v>
+        <v>801.83870224967</v>
       </c>
       <c r="T33" t="n">
-        <v>793.6150979270388</v>
+        <v>799.7121363380237</v>
       </c>
       <c r="U33" t="n">
-        <v>768.9804191162942</v>
+        <v>775.0774575272792</v>
       </c>
       <c r="V33" t="n">
-        <v>525.9007010199283</v>
+        <v>746.9869393823556</v>
       </c>
       <c r="W33" t="n">
-        <v>471.4913317016618</v>
+        <v>692.5775700640892</v>
       </c>
       <c r="X33" t="n">
-        <v>466.9725372698003</v>
+        <v>688.0587756322278</v>
       </c>
       <c r="Y33" t="n">
-        <v>456.3210441565702</v>
+        <v>677.4072825189977</v>
       </c>
     </row>
     <row r="34">
@@ -6832,73 +6832,73 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.0969013993593</v>
+        <v>70.96706481344943</v>
       </c>
       <c r="C34" t="n">
-        <v>36.0969013993593</v>
+        <v>116.8853705236053</v>
       </c>
       <c r="D34" t="n">
-        <v>36.0969013993593</v>
+        <v>183.8654616478103</v>
       </c>
       <c r="E34" t="n">
-        <v>36.0969013993593</v>
+        <v>254.3169967201161</v>
       </c>
       <c r="F34" t="n">
-        <v>36.0969013993593</v>
+        <v>270.7861757843813</v>
       </c>
       <c r="G34" t="n">
-        <v>36.0969013993593</v>
+        <v>270.7861757843813</v>
       </c>
       <c r="H34" t="n">
-        <v>36.0969013993593</v>
+        <v>270.7861757843813</v>
       </c>
       <c r="I34" t="n">
-        <v>36.0969013993593</v>
+        <v>270.7861757843813</v>
       </c>
       <c r="J34" t="n">
-        <v>36.0969013993593</v>
+        <v>270.7861757843813</v>
       </c>
       <c r="K34" t="n">
-        <v>36.0969013993593</v>
+        <v>270.7861757843813</v>
       </c>
       <c r="L34" t="n">
-        <v>36.0969013993593</v>
+        <v>270.7861757843813</v>
       </c>
       <c r="M34" t="n">
-        <v>36.0969013993593</v>
+        <v>270.7861757843813</v>
       </c>
       <c r="N34" t="n">
-        <v>36.0969013993593</v>
+        <v>270.7861757843813</v>
       </c>
       <c r="O34" t="n">
-        <v>210.4696355200518</v>
+        <v>270.7861757843813</v>
       </c>
       <c r="P34" t="n">
-        <v>270.7861757843819</v>
+        <v>270.7861757843813</v>
       </c>
       <c r="Q34" t="n">
-        <v>270.7861757843819</v>
+        <v>270.7861757843813</v>
       </c>
       <c r="R34" t="n">
-        <v>270.7861757843819</v>
+        <v>270.7861757843813</v>
       </c>
       <c r="S34" t="n">
-        <v>248.0555205723506</v>
+        <v>248.05552057235</v>
       </c>
       <c r="T34" t="n">
-        <v>237.0465672093607</v>
+        <v>237.0465672093603</v>
       </c>
       <c r="U34" t="n">
-        <v>160.4637889634858</v>
+        <v>160.4637889634855</v>
       </c>
       <c r="V34" t="n">
-        <v>127.8681250922513</v>
+        <v>127.868125092251</v>
       </c>
       <c r="W34" t="n">
-        <v>49.61418656961735</v>
+        <v>49.61418656961717</v>
       </c>
       <c r="X34" t="n">
-        <v>40.44232045212766</v>
+        <v>40.44232045212757</v>
       </c>
       <c r="Y34" t="n">
         <v>36.0969013993593</v>
@@ -6914,19 +6914,19 @@
         <v>847.8611162930806</v>
       </c>
       <c r="C35" t="n">
-        <v>733.4247863879058</v>
+        <v>733.4247863879056</v>
       </c>
       <c r="D35" t="n">
-        <v>631.547383491773</v>
+        <v>631.5473834917727</v>
       </c>
       <c r="E35" t="n">
-        <v>495.6227559295706</v>
+        <v>495.6227559295704</v>
       </c>
       <c r="F35" t="n">
-        <v>327.6573833387042</v>
+        <v>327.657383338704</v>
       </c>
       <c r="G35" t="n">
-        <v>143.9074439322734</v>
+        <v>143.9074439322733</v>
       </c>
       <c r="H35" t="n">
         <v>32.81360321867967</v>
@@ -6935,22 +6935,22 @@
         <v>29.15116475402738</v>
       </c>
       <c r="J35" t="n">
-        <v>188.7070453723071</v>
+        <v>73.89623482417605</v>
       </c>
       <c r="K35" t="n">
-        <v>418.1281614372558</v>
+        <v>73.89623482417605</v>
       </c>
       <c r="L35" t="n">
-        <v>701.2997382046856</v>
+        <v>122.5234161243006</v>
       </c>
       <c r="M35" t="n">
-        <v>1018.827202007648</v>
+        <v>440.0508799272626</v>
       </c>
       <c r="N35" t="n">
-        <v>1096.310587128108</v>
+        <v>752.078660515028</v>
       </c>
       <c r="O35" t="n">
-        <v>1132.566591779435</v>
+        <v>1022.879060633661</v>
       </c>
       <c r="P35" t="n">
         <v>1244.219544643156</v>
@@ -6990,10 +6990,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>356.534043711911</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="C36" t="n">
-        <v>167.1217694448747</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="D36" t="n">
         <v>29.15116475402738</v>
@@ -7035,31 +7035,31 @@
         <v>794.892965604338</v>
       </c>
       <c r="Q36" t="n">
-        <v>794.892965604338</v>
+        <v>788.795927193353</v>
       </c>
       <c r="R36" t="n">
-        <v>794.892965604338</v>
+        <v>788.795927193353</v>
       </c>
       <c r="S36" t="n">
-        <v>794.892965604338</v>
+        <v>788.795927193353</v>
       </c>
       <c r="T36" t="n">
-        <v>794.892965604338</v>
+        <v>788.795927193353</v>
       </c>
       <c r="U36" t="n">
-        <v>794.5756835846319</v>
+        <v>549.1720484311662</v>
       </c>
       <c r="V36" t="n">
-        <v>790.8025622307465</v>
+        <v>306.0923303348003</v>
       </c>
       <c r="W36" t="n">
-        <v>760.7105897035184</v>
+        <v>36.69376106509162</v>
       </c>
       <c r="X36" t="n">
-        <v>760.7105897035184</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="Y36" t="n">
-        <v>535.0698966388461</v>
+        <v>29.15116475402738</v>
       </c>
     </row>
     <row r="37">
@@ -7069,58 +7069,58 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>48.72570013530587</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="C37" t="n">
-        <v>48.72570013530587</v>
+        <v>98.90295105907998</v>
       </c>
       <c r="D37" t="n">
-        <v>48.72570013530587</v>
+        <v>98.90295105907998</v>
       </c>
       <c r="E37" t="n">
-        <v>48.72570013530587</v>
+        <v>98.90295105907998</v>
       </c>
       <c r="F37" t="n">
-        <v>48.72570013530587</v>
+        <v>98.90295105907998</v>
       </c>
       <c r="G37" t="n">
-        <v>48.72570013530587</v>
+        <v>98.90295105907998</v>
       </c>
       <c r="H37" t="n">
-        <v>48.72570013530587</v>
+        <v>129.0325841952402</v>
       </c>
       <c r="I37" t="n">
-        <v>48.72570013530587</v>
+        <v>129.0325841952402</v>
       </c>
       <c r="J37" t="n">
-        <v>48.72570013530587</v>
+        <v>129.0325841952402</v>
       </c>
       <c r="K37" t="n">
-        <v>48.72570013530587</v>
+        <v>129.0325841952402</v>
       </c>
       <c r="L37" t="n">
-        <v>48.72570013530587</v>
+        <v>129.0325841952402</v>
       </c>
       <c r="M37" t="n">
-        <v>48.72570013530587</v>
+        <v>129.0325841952402</v>
       </c>
       <c r="N37" t="n">
-        <v>48.72570013530587</v>
+        <v>129.0325841952402</v>
       </c>
       <c r="O37" t="n">
-        <v>48.72570013530587</v>
+        <v>129.0325841952402</v>
       </c>
       <c r="P37" t="n">
-        <v>143.6313550206554</v>
+        <v>129.0325841952402</v>
       </c>
       <c r="Q37" t="n">
-        <v>143.6313550206554</v>
+        <v>129.0325841952402</v>
       </c>
       <c r="R37" t="n">
-        <v>143.6313550206554</v>
+        <v>129.0325841952402</v>
       </c>
       <c r="S37" t="n">
-        <v>143.6313550206554</v>
+        <v>130.587749616825</v>
       </c>
       <c r="T37" t="n">
         <v>143.6313550206554</v>
@@ -7138,7 +7138,7 @@
         <v>29.15116475402738</v>
       </c>
       <c r="Y37" t="n">
-        <v>48.72570013530587</v>
+        <v>29.15116475402738</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>847.8611162930805</v>
+        <v>847.8611162930804</v>
       </c>
       <c r="C38" t="n">
         <v>733.4247863879057</v>
@@ -7157,34 +7157,34 @@
         <v>631.5473834917727</v>
       </c>
       <c r="E38" t="n">
-        <v>495.6227559295703</v>
+        <v>495.6227559295701</v>
       </c>
       <c r="F38" t="n">
-        <v>327.657383338704</v>
+        <v>327.6573833387038</v>
       </c>
       <c r="G38" t="n">
-        <v>143.9074439322736</v>
+        <v>143.9074439322731</v>
       </c>
       <c r="H38" t="n">
-        <v>32.81360321867975</v>
+        <v>32.81360321867967</v>
       </c>
       <c r="I38" t="n">
         <v>29.15116475402738</v>
       </c>
       <c r="J38" t="n">
-        <v>188.707045372307</v>
+        <v>188.7070453723071</v>
       </c>
       <c r="K38" t="n">
-        <v>308.4406302914817</v>
+        <v>418.1281614372557</v>
       </c>
       <c r="L38" t="n">
-        <v>357.0678115916063</v>
+        <v>466.7553427373803</v>
       </c>
       <c r="M38" t="n">
-        <v>674.5952753945683</v>
+        <v>549.738411073037</v>
       </c>
       <c r="N38" t="n">
-        <v>986.6230559823335</v>
+        <v>752.078660515028</v>
       </c>
       <c r="O38" t="n">
         <v>1022.879060633661</v>
@@ -7208,16 +7208,16 @@
         <v>1444.188505839171</v>
       </c>
       <c r="V38" t="n">
-        <v>1359.374109037054</v>
+        <v>1359.374109037053</v>
       </c>
       <c r="W38" t="n">
-        <v>1257.371146359568</v>
+        <v>1257.371146359567</v>
       </c>
       <c r="X38" t="n">
         <v>1133.260859976082</v>
       </c>
       <c r="Y38" t="n">
-        <v>986.4204189221488</v>
+        <v>986.4204189221487</v>
       </c>
     </row>
     <row r="39">
@@ -7227,7 +7227,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>137.0260493286071</v>
+        <v>218.5634390210637</v>
       </c>
       <c r="C39" t="n">
         <v>29.15116475402738</v>
@@ -7272,31 +7272,31 @@
         <v>794.892965604338</v>
       </c>
       <c r="Q39" t="n">
-        <v>794.892965604338</v>
+        <v>788.795927193353</v>
       </c>
       <c r="R39" t="n">
-        <v>794.892965604338</v>
+        <v>788.795927193353</v>
       </c>
       <c r="S39" t="n">
-        <v>794.892965604338</v>
+        <v>788.795927193353</v>
       </c>
       <c r="T39" t="n">
-        <v>794.892965604338</v>
+        <v>788.795927193353</v>
       </c>
       <c r="U39" t="n">
-        <v>794.5756835846317</v>
+        <v>788.4786451736469</v>
       </c>
       <c r="V39" t="n">
-        <v>790.8025622307464</v>
+        <v>784.7055238197615</v>
       </c>
       <c r="W39" t="n">
-        <v>760.7105897035182</v>
+        <v>663.7121264690396</v>
       </c>
       <c r="X39" t="n">
-        <v>541.2025953202145</v>
+        <v>444.204132085736</v>
       </c>
       <c r="Y39" t="n">
-        <v>315.5619022555422</v>
+        <v>218.5634390210637</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>43.99529936717242</v>
+        <v>63.569834748451</v>
       </c>
       <c r="C40" t="n">
-        <v>43.99529936717242</v>
+        <v>63.569834748451</v>
       </c>
       <c r="D40" t="n">
-        <v>43.99529936717242</v>
+        <v>63.569834748451</v>
       </c>
       <c r="E40" t="n">
-        <v>129.0325841952406</v>
+        <v>63.569834748451</v>
       </c>
       <c r="F40" t="n">
-        <v>129.0325841952406</v>
+        <v>63.569834748451</v>
       </c>
       <c r="G40" t="n">
-        <v>129.0325841952406</v>
+        <v>63.569834748451</v>
       </c>
       <c r="H40" t="n">
-        <v>129.0325841952406</v>
+        <v>133.9962540710264</v>
       </c>
       <c r="I40" t="n">
-        <v>129.0325841952406</v>
+        <v>133.9962540710264</v>
       </c>
       <c r="J40" t="n">
-        <v>129.0325841952406</v>
+        <v>133.9962540710264</v>
       </c>
       <c r="K40" t="n">
-        <v>129.0325841952406</v>
+        <v>133.9962540710264</v>
       </c>
       <c r="L40" t="n">
-        <v>129.0325841952406</v>
+        <v>133.9962540710264</v>
       </c>
       <c r="M40" t="n">
-        <v>129.0325841952406</v>
+        <v>133.9962540710264</v>
       </c>
       <c r="N40" t="n">
-        <v>129.0325841952406</v>
+        <v>133.9962540710264</v>
       </c>
       <c r="O40" t="n">
-        <v>129.0325841952406</v>
+        <v>133.9962540710264</v>
       </c>
       <c r="P40" t="n">
-        <v>129.0325841952406</v>
+        <v>133.9962540710264</v>
       </c>
       <c r="Q40" t="n">
-        <v>129.0325841952406</v>
+        <v>133.9962540710264</v>
       </c>
       <c r="R40" t="n">
-        <v>129.0325841952406</v>
+        <v>133.9962540710264</v>
       </c>
       <c r="S40" t="n">
-        <v>130.5877496168254</v>
+        <v>135.5514194926113</v>
       </c>
       <c r="T40" t="n">
-        <v>143.6313550206557</v>
+        <v>143.6313550206554</v>
       </c>
       <c r="U40" t="n">
-        <v>91.36597356581912</v>
+        <v>91.36597356581895</v>
       </c>
       <c r="V40" t="n">
-        <v>83.08770648562296</v>
+        <v>83.08770648562287</v>
       </c>
       <c r="W40" t="n">
         <v>29.15116475402738</v>
       </c>
       <c r="X40" t="n">
-        <v>43.99529936717242</v>
+        <v>43.99529936717251</v>
       </c>
       <c r="Y40" t="n">
-        <v>43.99529936717242</v>
+        <v>63.569834748451</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>847.8611162930802</v>
+        <v>847.8611162930804</v>
       </c>
       <c r="C41" t="n">
-        <v>733.4247863879053</v>
+        <v>733.4247863879054</v>
       </c>
       <c r="D41" t="n">
-        <v>631.5473834917725</v>
+        <v>631.5473834917726</v>
       </c>
       <c r="E41" t="n">
-        <v>495.6227559295701</v>
+        <v>495.6227559295702</v>
       </c>
       <c r="F41" t="n">
         <v>327.6573833387038</v>
@@ -7403,28 +7403,28 @@
         <v>143.9074439322731</v>
       </c>
       <c r="H41" t="n">
-        <v>32.81360321867967</v>
+        <v>32.81360321867973</v>
       </c>
       <c r="I41" t="n">
         <v>29.15116475402738</v>
       </c>
       <c r="J41" t="n">
-        <v>188.7070453723071</v>
+        <v>188.707045372307</v>
       </c>
       <c r="K41" t="n">
-        <v>418.1281614372558</v>
+        <v>418.1281614372556</v>
       </c>
       <c r="L41" t="n">
-        <v>701.2997382046856</v>
+        <v>591.6122070589114</v>
       </c>
       <c r="M41" t="n">
-        <v>784.2828065403423</v>
+        <v>674.5952753945681</v>
       </c>
       <c r="N41" t="n">
-        <v>861.7661916608025</v>
+        <v>752.0786605150283</v>
       </c>
       <c r="O41" t="n">
-        <v>1022.87906063366</v>
+        <v>1022.879060633661</v>
       </c>
       <c r="P41" t="n">
         <v>1244.219544643156</v>
@@ -7433,7 +7433,7 @@
         <v>1391.25384111689</v>
       </c>
       <c r="R41" t="n">
-        <v>1433.624336596319</v>
+        <v>1433.62433659632</v>
       </c>
       <c r="S41" t="n">
         <v>1443.202183948052</v>
@@ -7442,7 +7442,7 @@
         <v>1457.558237701369</v>
       </c>
       <c r="U41" t="n">
-        <v>1444.18850583917</v>
+        <v>1444.188505839171</v>
       </c>
       <c r="V41" t="n">
         <v>1359.374109037053</v>
@@ -7454,7 +7454,7 @@
         <v>1133.260859976082</v>
       </c>
       <c r="Y41" t="n">
-        <v>986.4204189221484</v>
+        <v>986.4204189221487</v>
       </c>
     </row>
     <row r="42">
@@ -7509,31 +7509,31 @@
         <v>794.892965604338</v>
       </c>
       <c r="Q42" t="n">
-        <v>794.892965604338</v>
+        <v>788.795927193353</v>
       </c>
       <c r="R42" t="n">
-        <v>794.892965604338</v>
+        <v>788.795927193353</v>
       </c>
       <c r="S42" t="n">
-        <v>794.892965604338</v>
+        <v>788.795927193353</v>
       </c>
       <c r="T42" t="n">
-        <v>794.892965604338</v>
+        <v>788.795927193353</v>
       </c>
       <c r="U42" t="n">
-        <v>794.5756835846319</v>
+        <v>788.4786451736468</v>
       </c>
       <c r="V42" t="n">
-        <v>743.698421471712</v>
+        <v>784.7055238197614</v>
       </c>
       <c r="W42" t="n">
-        <v>474.2998522020034</v>
+        <v>515.3069545500528</v>
       </c>
       <c r="X42" t="n">
-        <v>254.7918578186997</v>
+        <v>295.7989601667491</v>
       </c>
       <c r="Y42" t="n">
-        <v>29.15116475402738</v>
+        <v>70.15826710207676</v>
       </c>
     </row>
     <row r="43">
@@ -7543,67 +7543,67 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>48.72570013530587</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="C43" t="n">
-        <v>48.72570013530587</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="D43" t="n">
-        <v>48.72570013530587</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="E43" t="n">
-        <v>48.72570013530587</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="F43" t="n">
-        <v>48.72570013530587</v>
+        <v>58.60616487266509</v>
       </c>
       <c r="G43" t="n">
-        <v>48.72570013530587</v>
+        <v>58.60616487266509</v>
       </c>
       <c r="H43" t="n">
-        <v>48.72570013530587</v>
+        <v>129.0325841952404</v>
       </c>
       <c r="I43" t="n">
-        <v>48.72570013530587</v>
+        <v>129.0325841952404</v>
       </c>
       <c r="J43" t="n">
-        <v>48.72570013530587</v>
+        <v>129.0325841952404</v>
       </c>
       <c r="K43" t="n">
-        <v>48.72570013530587</v>
+        <v>129.0325841952404</v>
       </c>
       <c r="L43" t="n">
-        <v>48.72570013530587</v>
+        <v>129.0325841952404</v>
       </c>
       <c r="M43" t="n">
-        <v>143.6313550206554</v>
+        <v>129.0325841952404</v>
       </c>
       <c r="N43" t="n">
-        <v>143.6313550206554</v>
+        <v>129.0325841952404</v>
       </c>
       <c r="O43" t="n">
-        <v>143.6313550206554</v>
+        <v>129.0325841952404</v>
       </c>
       <c r="P43" t="n">
-        <v>143.6313550206554</v>
+        <v>129.0325841952404</v>
       </c>
       <c r="Q43" t="n">
-        <v>143.6313550206554</v>
+        <v>129.0325841952404</v>
       </c>
       <c r="R43" t="n">
-        <v>143.6313550206554</v>
+        <v>129.0325841952404</v>
       </c>
       <c r="S43" t="n">
-        <v>143.6313550206554</v>
+        <v>130.5877496168252</v>
       </c>
       <c r="T43" t="n">
-        <v>143.6313550206554</v>
+        <v>143.6313550206556</v>
       </c>
       <c r="U43" t="n">
-        <v>91.36597356581895</v>
+        <v>91.36597356581906</v>
       </c>
       <c r="V43" t="n">
-        <v>83.08770648562287</v>
+        <v>83.08770648562293</v>
       </c>
       <c r="W43" t="n">
         <v>29.15116475402738</v>
@@ -7612,7 +7612,7 @@
         <v>29.15116475402738</v>
       </c>
       <c r="Y43" t="n">
-        <v>48.72570013530587</v>
+        <v>29.15116475402738</v>
       </c>
     </row>
     <row r="44">
@@ -7631,37 +7631,37 @@
         <v>631.547383491773</v>
       </c>
       <c r="E44" t="n">
-        <v>495.6227559295704</v>
+        <v>495.6227559295702</v>
       </c>
       <c r="F44" t="n">
-        <v>327.657383338704</v>
+        <v>327.6573833387038</v>
       </c>
       <c r="G44" t="n">
-        <v>143.9074439322733</v>
+        <v>143.9074439322731</v>
       </c>
       <c r="H44" t="n">
-        <v>32.81360321867967</v>
+        <v>32.81360321867973</v>
       </c>
       <c r="I44" t="n">
         <v>29.15116475402738</v>
       </c>
       <c r="J44" t="n">
-        <v>188.7070453723071</v>
+        <v>188.707045372307</v>
       </c>
       <c r="K44" t="n">
-        <v>418.1281614372558</v>
+        <v>188.707045372307</v>
       </c>
       <c r="L44" t="n">
-        <v>701.2997382046856</v>
+        <v>471.8786221397368</v>
       </c>
       <c r="M44" t="n">
-        <v>909.1396708618728</v>
+        <v>789.4060859426987</v>
       </c>
       <c r="N44" t="n">
-        <v>986.623055982333</v>
+        <v>866.8894710631589</v>
       </c>
       <c r="O44" t="n">
-        <v>1022.87906063366</v>
+        <v>1022.879060633661</v>
       </c>
       <c r="P44" t="n">
         <v>1244.219544643156</v>
@@ -7670,7 +7670,7 @@
         <v>1391.25384111689</v>
       </c>
       <c r="R44" t="n">
-        <v>1433.624336596319</v>
+        <v>1433.62433659632</v>
       </c>
       <c r="S44" t="n">
         <v>1443.202183948052</v>
@@ -7682,7 +7682,7 @@
         <v>1444.188505839171</v>
       </c>
       <c r="V44" t="n">
-        <v>1359.374109037053</v>
+        <v>1359.374109037054</v>
       </c>
       <c r="W44" t="n">
         <v>1257.371146359568</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>350.4370053009259</v>
+        <v>713.3344754213734</v>
       </c>
       <c r="C45" t="n">
-        <v>161.0247310338897</v>
+        <v>523.9222011543371</v>
       </c>
       <c r="D45" t="n">
-        <v>161.0247310338897</v>
+        <v>363.1420849153689</v>
       </c>
       <c r="E45" t="n">
-        <v>29.15116475402738</v>
+        <v>189.5788810367833</v>
       </c>
       <c r="F45" t="n">
         <v>29.15116475402738</v>
@@ -7758,19 +7758,19 @@
         <v>788.795927193353</v>
       </c>
       <c r="U45" t="n">
-        <v>788.4786451736469</v>
+        <v>788.4786451736468</v>
       </c>
       <c r="V45" t="n">
-        <v>784.7055238197615</v>
+        <v>784.7055238197614</v>
       </c>
       <c r="W45" t="n">
-        <v>754.6135512925334</v>
+        <v>754.6135512925333</v>
       </c>
       <c r="X45" t="n">
-        <v>754.6135512925334</v>
+        <v>754.6135512925333</v>
       </c>
       <c r="Y45" t="n">
-        <v>528.972858227861</v>
+        <v>754.6135512925333</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>63.569834748451</v>
+        <v>122.2734787574377</v>
       </c>
       <c r="C46" t="n">
-        <v>63.569834748451</v>
+        <v>143.6313550206556</v>
       </c>
       <c r="D46" t="n">
-        <v>63.569834748451</v>
+        <v>143.6313550206556</v>
       </c>
       <c r="E46" t="n">
-        <v>63.569834748451</v>
+        <v>143.6313550206556</v>
       </c>
       <c r="F46" t="n">
-        <v>63.569834748451</v>
+        <v>143.6313550206556</v>
       </c>
       <c r="G46" t="n">
-        <v>131.1058817788496</v>
+        <v>143.6313550206556</v>
       </c>
       <c r="H46" t="n">
-        <v>131.1058817788496</v>
+        <v>143.6313550206556</v>
       </c>
       <c r="I46" t="n">
-        <v>131.1058817788496</v>
+        <v>143.6313550206556</v>
       </c>
       <c r="J46" t="n">
-        <v>131.1058817788496</v>
+        <v>143.6313550206556</v>
       </c>
       <c r="K46" t="n">
-        <v>131.1058817788496</v>
+        <v>143.6313550206556</v>
       </c>
       <c r="L46" t="n">
-        <v>131.1058817788496</v>
+        <v>143.6313550206556</v>
       </c>
       <c r="M46" t="n">
-        <v>131.1058817788496</v>
+        <v>143.6313550206556</v>
       </c>
       <c r="N46" t="n">
-        <v>131.1058817788496</v>
+        <v>143.6313550206556</v>
       </c>
       <c r="O46" t="n">
-        <v>131.1058817788496</v>
+        <v>143.6313550206556</v>
       </c>
       <c r="P46" t="n">
-        <v>131.1058817788496</v>
+        <v>143.6313550206556</v>
       </c>
       <c r="Q46" t="n">
-        <v>131.1058817788496</v>
+        <v>143.6313550206556</v>
       </c>
       <c r="R46" t="n">
-        <v>142.0761895990705</v>
+        <v>143.6313550206556</v>
       </c>
       <c r="S46" t="n">
-        <v>143.6313550206554</v>
+        <v>143.6313550206556</v>
       </c>
       <c r="T46" t="n">
-        <v>143.6313550206554</v>
+        <v>143.6313550206556</v>
       </c>
       <c r="U46" t="n">
-        <v>91.36597356581895</v>
+        <v>91.36597356581906</v>
       </c>
       <c r="V46" t="n">
-        <v>83.08770648562287</v>
+        <v>83.08770648562293</v>
       </c>
       <c r="W46" t="n">
         <v>29.15116475402738</v>
       </c>
       <c r="X46" t="n">
-        <v>43.99529936717251</v>
+        <v>43.99529936717246</v>
       </c>
       <c r="Y46" t="n">
-        <v>63.569834748451</v>
+        <v>63.5698347484509</v>
       </c>
     </row>
   </sheetData>
@@ -8772,16 +8772,16 @@
         <v>131.9724314025781</v>
       </c>
       <c r="L12" t="n">
-        <v>207.1905848512652</v>
+        <v>207.1905848512651</v>
       </c>
       <c r="M12" t="n">
-        <v>203.4325914874595</v>
+        <v>203.4325914874594</v>
       </c>
       <c r="N12" t="n">
-        <v>185.2548789084511</v>
+        <v>188.7628267091237</v>
       </c>
       <c r="O12" t="n">
-        <v>207.4598856512405</v>
+        <v>203.9519378505678</v>
       </c>
       <c r="P12" t="n">
         <v>120.6473598448789</v>
@@ -9009,19 +9009,19 @@
         <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
-        <v>207.1905848512652</v>
+        <v>120.3688767846161</v>
       </c>
       <c r="M15" t="n">
-        <v>160.5236015052139</v>
+        <v>203.4325914874594</v>
       </c>
       <c r="N15" t="n">
-        <v>188.7628267091238</v>
+        <v>146.9590305597267</v>
       </c>
       <c r="O15" t="n">
-        <v>207.4598856512405</v>
+        <v>207.4598856512404</v>
       </c>
       <c r="P15" t="n">
-        <v>120.6473598448789</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9243,19 +9243,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>131.9724314025781</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L18" t="n">
-        <v>207.1905848512652</v>
+        <v>207.1905848512651</v>
       </c>
       <c r="M18" t="n">
-        <v>201.0298375196355</v>
+        <v>203.4325914874594</v>
       </c>
       <c r="N18" t="n">
         <v>101.9411186424748</v>
       </c>
       <c r="O18" t="n">
-        <v>207.4598856512405</v>
+        <v>165.6560895018434</v>
       </c>
       <c r="P18" t="n">
         <v>206.3638740786793</v>
@@ -9483,13 +9483,13 @@
         <v>131.9724314025781</v>
       </c>
       <c r="L21" t="n">
-        <v>207.1905848512652</v>
+        <v>207.1905848512651</v>
       </c>
       <c r="M21" t="n">
-        <v>203.4325914874595</v>
+        <v>203.4325914874594</v>
       </c>
       <c r="N21" t="n">
-        <v>188.7628267091238</v>
+        <v>188.7628267091237</v>
       </c>
       <c r="O21" t="n">
         <v>203.9519378505678</v>
@@ -9717,22 +9717,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>131.9724314025781</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
-        <v>207.1905848512649</v>
+        <v>207.190584851265</v>
       </c>
       <c r="M24" t="n">
-        <v>203.4325914874593</v>
+        <v>116.6108834208104</v>
       </c>
       <c r="N24" t="n">
-        <v>188.7628267091236</v>
+        <v>146.9590305597267</v>
       </c>
       <c r="O24" t="n">
-        <v>203.9519378505676</v>
+        <v>207.4598856512404</v>
       </c>
       <c r="P24" t="n">
-        <v>120.6473598448789</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>170.598241355147</v>
+        <v>83.776533288498</v>
       </c>
       <c r="C11" t="n">
-        <v>146.7164983584925</v>
+        <v>63.14598148198484</v>
       </c>
       <c r="D11" t="n">
-        <v>134.283160619541</v>
+        <v>134.2831606195409</v>
       </c>
       <c r="E11" t="n">
-        <v>167.9899130389499</v>
+        <v>167.9899130389498</v>
       </c>
       <c r="F11" t="n">
-        <v>162.8003000367659</v>
+        <v>199.7102506173271</v>
       </c>
       <c r="G11" t="n">
-        <v>215.3369717647359</v>
+        <v>215.3369717647358</v>
       </c>
       <c r="H11" t="n">
-        <v>56.58572599217825</v>
+        <v>143.4074340588272</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>46.66056629594525</v>
       </c>
       <c r="V11" t="n">
-        <v>117.3907845864657</v>
+        <v>30.56907651981669</v>
       </c>
       <c r="W11" t="n">
-        <v>134.4074648030806</v>
+        <v>134.4074648030805</v>
       </c>
       <c r="X11" t="n">
-        <v>156.2937152720198</v>
+        <v>156.2937152720197</v>
       </c>
       <c r="Y11" t="n">
-        <v>91.97486032911456</v>
+        <v>178.7965683957635</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>83.776533288498</v>
+        <v>87.0277244786395</v>
       </c>
       <c r="C14" t="n">
-        <v>59.89479029184349</v>
+        <v>146.7164983584924</v>
       </c>
       <c r="D14" t="n">
-        <v>134.283160619541</v>
+        <v>47.46145255289196</v>
       </c>
       <c r="E14" t="n">
-        <v>81.16820497230083</v>
+        <v>167.9899130389498</v>
       </c>
       <c r="F14" t="n">
-        <v>199.7102506173272</v>
+        <v>199.7102506173271</v>
       </c>
       <c r="G14" t="n">
-        <v>215.3369717647359</v>
+        <v>215.3369717647358</v>
       </c>
       <c r="H14" t="n">
-        <v>132.5189072447478</v>
+        <v>56.5857259921782</v>
       </c>
       <c r="I14" t="n">
-        <v>37.05034583237526</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>23.74993846779105</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>46.66056629594525</v>
       </c>
       <c r="V14" t="n">
-        <v>117.3907845864657</v>
+        <v>117.3907845864656</v>
       </c>
       <c r="W14" t="n">
-        <v>134.4074648030806</v>
+        <v>134.4074648030805</v>
       </c>
       <c r="X14" t="n">
-        <v>156.2937152720198</v>
+        <v>156.2937152720197</v>
       </c>
       <c r="Y14" t="n">
-        <v>178.7965683957636</v>
+        <v>178.7965683957635</v>
       </c>
     </row>
     <row r="15">
@@ -26314,7 +26314,7 @@
         <v>22048.29987941149</v>
       </c>
       <c r="C2" t="n">
-        <v>22048.29987941149</v>
+        <v>22048.29987941148</v>
       </c>
       <c r="D2" t="n">
         <v>22048.29987941149</v>
@@ -26323,34 +26323,34 @@
         <v>18999.75222551197</v>
       </c>
       <c r="F2" t="n">
-        <v>18999.75222551197</v>
+        <v>18999.75222551196</v>
       </c>
       <c r="G2" t="n">
-        <v>22092.96372146337</v>
+        <v>22092.96372146338</v>
       </c>
       <c r="H2" t="n">
         <v>22092.96372146338</v>
       </c>
       <c r="I2" t="n">
-        <v>22092.96372146339</v>
+        <v>22092.96372146338</v>
       </c>
       <c r="J2" t="n">
         <v>22092.96372146336</v>
       </c>
       <c r="K2" t="n">
-        <v>22092.96372146337</v>
+        <v>22092.96372146335</v>
       </c>
       <c r="L2" t="n">
         <v>22092.96372146337</v>
       </c>
       <c r="M2" t="n">
-        <v>22092.96372146339</v>
+        <v>22092.96372146338</v>
       </c>
       <c r="N2" t="n">
         <v>22092.96372146338</v>
       </c>
       <c r="O2" t="n">
-        <v>22092.96372146338</v>
+        <v>22092.96372146339</v>
       </c>
       <c r="P2" t="n">
         <v>22092.96372146339</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>272434.2066155724</v>
+        <v>272434.2066155725</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,28 +26381,28 @@
         <v>104848.2026895066</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>160763.5855583198</v>
+        <v>160763.5855583199</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>104848.2026895066</v>
+        <v>104848.2026895067</v>
       </c>
       <c r="M3" t="n">
-        <v>19259.37825850249</v>
+        <v>19259.37825850237</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>65423.24367203566</v>
+        <v>65423.24367203555</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,28 +26424,28 @@
         <v>477830.6635302753</v>
       </c>
       <c r="E4" t="n">
-        <v>372146.5274278299</v>
+        <v>372146.52742783</v>
       </c>
       <c r="F4" t="n">
         <v>372146.52742783</v>
       </c>
       <c r="G4" t="n">
-        <v>442672.8937875655</v>
+        <v>442672.8937875656</v>
       </c>
       <c r="H4" t="n">
-        <v>442672.8937875655</v>
+        <v>442672.8937875656</v>
       </c>
       <c r="I4" t="n">
         <v>442672.8937875655</v>
       </c>
       <c r="J4" t="n">
-        <v>442256.8076974517</v>
+        <v>442256.8076974518</v>
       </c>
       <c r="K4" t="n">
         <v>442256.8076974518</v>
       </c>
       <c r="L4" t="n">
-        <v>442256.8076974517</v>
+        <v>442256.8076974518</v>
       </c>
       <c r="M4" t="n">
         <v>441867.4728269802</v>
@@ -26457,7 +26457,7 @@
         <v>441867.4728269802</v>
       </c>
       <c r="P4" t="n">
-        <v>441867.4728269802</v>
+        <v>441867.4728269803</v>
       </c>
     </row>
     <row r="5">
@@ -26488,10 +26488,10 @@
         <v>35675.68646773272</v>
       </c>
       <c r="I5" t="n">
-        <v>35675.68646773271</v>
+        <v>35675.68646773272</v>
       </c>
       <c r="J5" t="n">
-        <v>47598.53836228575</v>
+        <v>47598.53836228577</v>
       </c>
       <c r="K5" t="n">
         <v>47598.53836228576</v>
@@ -26503,7 +26503,7 @@
         <v>44343.67435035105</v>
       </c>
       <c r="N5" t="n">
-        <v>44343.67435035104</v>
+        <v>44343.67435035105</v>
       </c>
       <c r="O5" t="n">
         <v>44343.67435035105</v>
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-489409.9636508639</v>
+        <v>-489414.4300350691</v>
       </c>
       <c r="C6" t="n">
-        <v>-489409.9636508639</v>
+        <v>-489414.4300350691</v>
       </c>
       <c r="D6" t="n">
-        <v>-489409.9636508639</v>
+        <v>-489414.4300350691</v>
       </c>
       <c r="E6" t="n">
-        <v>-650238.563845743</v>
+        <v>-650547.8849953383</v>
       </c>
       <c r="F6" t="n">
-        <v>-377804.3572301706</v>
+        <v>-378113.6783797658</v>
       </c>
       <c r="G6" t="n">
-        <v>-561103.8192233415</v>
+        <v>-561103.8192233416</v>
       </c>
       <c r="H6" t="n">
         <v>-456255.6165338349</v>
@@ -26543,22 +26543,22 @@
         <v>-456255.6165338348</v>
       </c>
       <c r="J6" t="n">
-        <v>-628525.9678965939</v>
+        <v>-628525.9678965942</v>
       </c>
       <c r="K6" t="n">
         <v>-467762.3823382742</v>
       </c>
       <c r="L6" t="n">
-        <v>-572610.5850277806</v>
+        <v>-572610.5850277808</v>
       </c>
       <c r="M6" t="n">
-        <v>-483377.5617143704</v>
+        <v>-483377.5617143702</v>
       </c>
       <c r="N6" t="n">
-        <v>-464118.1834558678</v>
+        <v>-464118.1834558679</v>
       </c>
       <c r="O6" t="n">
-        <v>-529541.4271279036</v>
+        <v>-529541.4271279034</v>
       </c>
       <c r="P6" t="n">
         <v>-464118.1834558679</v>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="F2" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="G2" t="n">
-        <v>334.5492523845696</v>
+        <v>334.5492523845697</v>
       </c>
       <c r="H2" t="n">
-        <v>334.5492523845696</v>
+        <v>334.5492523845697</v>
       </c>
       <c r="I2" t="n">
-        <v>334.5492523845696</v>
+        <v>334.5492523845697</v>
       </c>
       <c r="J2" t="n">
         <v>212.8393079519278</v>
@@ -26713,19 +26713,19 @@
         <v>212.8393079519278</v>
       </c>
       <c r="L2" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="M2" t="n">
         <v>236.9135307750558</v>
       </c>
       <c r="N2" t="n">
+        <v>236.9135307750558</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.9135307750557</v>
       </c>
-      <c r="O2" t="n">
-        <v>236.9135307750558</v>
-      </c>
       <c r="P2" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
     </row>
     <row r="3">
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>86.82170806664902</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="F4" t="n">
-        <v>86.82170806664902</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="G4" t="n">
-        <v>86.82170806664902</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="H4" t="n">
-        <v>86.82170806664902</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="I4" t="n">
-        <v>86.82170806664881</v>
+        <v>86.82170806664892</v>
       </c>
       <c r="J4" t="n">
-        <v>451.211267491991</v>
+        <v>451.2112674919914</v>
       </c>
       <c r="K4" t="n">
         <v>451.2112674919912</v>
@@ -26820,16 +26820,16 @@
         <v>451.2112674919912</v>
       </c>
       <c r="M4" t="n">
-        <v>364.3895594253422</v>
+        <v>364.3895594253423</v>
       </c>
       <c r="N4" t="n">
-        <v>364.3895594253422</v>
+        <v>364.3895594253423</v>
       </c>
       <c r="O4" t="n">
-        <v>364.3895594253422</v>
+        <v>364.3895594253423</v>
       </c>
       <c r="P4" t="n">
-        <v>364.3895594253422</v>
+        <v>364.3895594253423</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26923,7 +26923,7 @@
         <v>131.0602533618833</v>
       </c>
       <c r="H2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>131.0602533618832</v>
+        <v>131.0602533618834</v>
       </c>
       <c r="M2" t="n">
-        <v>24.07422282312811</v>
+        <v>24.07422282312797</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.77905459004458</v>
+        <v>81.77905459004444</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>86.82170806664902</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>364.3895594253422</v>
+        <v>364.3895594253425</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>131.0602533618833</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>86.82170806664902</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,34 +28087,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="C11" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="D11" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="E11" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="F11" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="G11" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="H11" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="I11" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="J11" t="n">
-        <v>162.3229919375121</v>
+        <v>75.74597459497527</v>
       </c>
       <c r="K11" t="n">
-        <v>5.175029699350098</v>
+        <v>5.175029699350105</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28129,34 +28129,34 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>13.33728430081828</v>
+        <v>99.91430164335469</v>
       </c>
       <c r="Q11" t="n">
         <v>88.39403938744573</v>
       </c>
       <c r="R11" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="S11" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="T11" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="U11" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="V11" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="W11" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="X11" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="Y11" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
     </row>
     <row r="12">
@@ -28166,7 +28166,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.7504943976657</v>
+        <v>89.92878633101679</v>
       </c>
       <c r="C12" t="n">
         <v>187.5181515243659</v>
@@ -28187,7 +28187,7 @@
         <v>125.6724707086533</v>
       </c>
       <c r="I12" t="n">
-        <v>107.1386269945785</v>
+        <v>42.34767753186573</v>
       </c>
       <c r="J12" t="n">
         <v>51.85834769223185</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>47.49273818813165</v>
+        <v>134.3144462547807</v>
       </c>
       <c r="S12" t="n">
-        <v>126.6785733878973</v>
+        <v>191.4695228506099</v>
       </c>
       <c r="T12" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="U12" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="V12" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="W12" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="X12" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="Y12" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
     </row>
     <row r="13">
@@ -28245,34 +28245,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>203.4889990226863</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
-        <v>203.4889990226863</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>145.1826502507107</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="E13" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="F13" t="n">
-        <v>203.4889990226863</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
         <v>168.6953014514208</v>
       </c>
       <c r="H13" t="n">
-        <v>203.4889990226863</v>
+        <v>165.7757334795251</v>
       </c>
       <c r="I13" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="J13" t="n">
-        <v>157.5956973859694</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="K13" t="n">
-        <v>66.39406177691131</v>
+        <v>127.3736901240507</v>
       </c>
       <c r="L13" t="n">
         <v>31.33805968349146</v>
@@ -28284,7 +28284,7 @@
         <v>15.68256630572604</v>
       </c>
       <c r="O13" t="n">
-        <v>36.70523308254137</v>
+        <v>36.70523308254138</v>
       </c>
       <c r="P13" t="n">
         <v>57.81660688993938</v>
@@ -28293,28 +28293,28 @@
         <v>126.7586570094679</v>
       </c>
       <c r="R13" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="S13" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="T13" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="U13" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="V13" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="W13" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="X13" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="Y13" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
     </row>
     <row r="14">
@@ -28324,34 +28324,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="C14" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="D14" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="E14" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="F14" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="G14" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="H14" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="I14" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="J14" t="n">
-        <v>75.74597459497525</v>
+        <v>75.74597459497527</v>
       </c>
       <c r="K14" t="n">
-        <v>5.175029699350098</v>
+        <v>5.175029699350105</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -28363,37 +28363,37 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>50.19948114611627</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>13.33728430081828</v>
+        <v>13.33728430081829</v>
       </c>
       <c r="Q14" t="n">
-        <v>124.7715755838663</v>
+        <v>174.9710567299821</v>
       </c>
       <c r="R14" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="S14" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="T14" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="U14" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="V14" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="W14" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="X14" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="Y14" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
     </row>
     <row r="15">
@@ -28415,16 +28415,16 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>145.8908373494476</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
         <v>148.7380757353064</v>
       </c>
       <c r="H15" t="n">
-        <v>125.6724707086533</v>
+        <v>112.7398689381724</v>
       </c>
       <c r="I15" t="n">
-        <v>20.3169189279295</v>
+        <v>20.31691892792959</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28457,22 +28457,22 @@
         <v>191.4695228506099</v>
       </c>
       <c r="T15" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="U15" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="V15" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="W15" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="X15" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="Y15" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
     </row>
     <row r="16">
@@ -28485,34 +28485,34 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
-        <v>166.4571809719723</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="D16" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="E16" t="n">
-        <v>141.676141212225</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="G16" t="n">
         <v>168.6953014514208</v>
       </c>
       <c r="H16" t="n">
-        <v>203.4889990226863</v>
+        <v>165.7757334795251</v>
       </c>
       <c r="I16" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="J16" t="n">
-        <v>119.8526328486804</v>
+        <v>162.874692514872</v>
       </c>
       <c r="K16" t="n">
         <v>66.39406177691131</v>
       </c>
       <c r="L16" t="n">
-        <v>118.1597677501405</v>
+        <v>31.33805968349146</v>
       </c>
       <c r="M16" t="n">
         <v>24.35887319852013</v>
@@ -28521,7 +28521,7 @@
         <v>15.68256630572604</v>
       </c>
       <c r="O16" t="n">
-        <v>118.9042570438347</v>
+        <v>36.70523308254138</v>
       </c>
       <c r="P16" t="n">
         <v>57.81660688993938</v>
@@ -28530,28 +28530,28 @@
         <v>126.7586570094679</v>
       </c>
       <c r="R16" t="n">
-        <v>203.1838537831904</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="S16" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="T16" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="U16" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="V16" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="W16" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="X16" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="Y16" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
     </row>
     <row r="17">
@@ -28561,34 +28561,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>334.5492523845696</v>
+        <v>334.5492523845697</v>
       </c>
       <c r="C17" t="n">
-        <v>334.5492523845696</v>
+        <v>334.5492523845697</v>
       </c>
       <c r="D17" t="n">
-        <v>334.5492523845696</v>
+        <v>334.5492523845697</v>
       </c>
       <c r="E17" t="n">
-        <v>334.5492523845696</v>
+        <v>334.5492523845697</v>
       </c>
       <c r="F17" t="n">
-        <v>334.5492523845696</v>
+        <v>334.5492523845697</v>
       </c>
       <c r="G17" t="n">
-        <v>334.5492523845696</v>
+        <v>334.5492523845697</v>
       </c>
       <c r="H17" t="n">
-        <v>334.5492523845696</v>
+        <v>334.5492523845697</v>
       </c>
       <c r="I17" t="n">
-        <v>322.8208419520635</v>
+        <v>240.5393448550616</v>
       </c>
       <c r="J17" t="n">
-        <v>75.74597459497525</v>
+        <v>75.74597459497527</v>
       </c>
       <c r="K17" t="n">
-        <v>5.175029699350098</v>
+        <v>5.175029699350105</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28603,7 +28603,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>13.33728430081828</v>
+        <v>13.33728430081829</v>
       </c>
       <c r="Q17" t="n">
         <v>88.39403938744573</v>
@@ -28618,19 +28618,19 @@
         <v>222.4124663777658</v>
       </c>
       <c r="U17" t="n">
-        <v>250.1495653186316</v>
+        <v>334.5492523845697</v>
       </c>
       <c r="V17" t="n">
-        <v>334.5492523845696</v>
+        <v>332.4310624156331</v>
       </c>
       <c r="W17" t="n">
-        <v>334.5492523845696</v>
+        <v>334.5492523845697</v>
       </c>
       <c r="X17" t="n">
-        <v>334.5492523845696</v>
+        <v>334.5492523845697</v>
       </c>
       <c r="Y17" t="n">
-        <v>334.5492523845696</v>
+        <v>334.5492523845697</v>
       </c>
     </row>
     <row r="18">
@@ -28643,25 +28643,25 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>100.6964434577169</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>85.00586377315065</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.7380757353064</v>
+        <v>61.91636766865747</v>
       </c>
       <c r="H18" t="n">
         <v>125.6724707086533</v>
       </c>
       <c r="I18" t="n">
-        <v>107.1386269945785</v>
+        <v>20.31691892792959</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,13 +28688,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>47.49273818813165</v>
+        <v>47.49273818813174</v>
       </c>
       <c r="S18" t="n">
-        <v>191.4695228506099</v>
+        <v>172.8913781046125</v>
       </c>
       <c r="T18" t="n">
-        <v>196.3664634584601</v>
+        <v>214.9446082044576</v>
       </c>
       <c r="U18" t="n">
         <v>237.2276399745649</v>
@@ -28758,7 +28758,7 @@
         <v>15.68256630572604</v>
       </c>
       <c r="O19" t="n">
-        <v>36.70523308254137</v>
+        <v>36.70523308254138</v>
       </c>
       <c r="P19" t="n">
         <v>57.81660688993938</v>
@@ -28798,34 +28798,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>334.5492523845696</v>
+        <v>334.5492523845697</v>
       </c>
       <c r="C20" t="n">
-        <v>334.5492523845696</v>
+        <v>334.5492523845697</v>
       </c>
       <c r="D20" t="n">
-        <v>334.5492523845696</v>
+        <v>334.5492523845697</v>
       </c>
       <c r="E20" t="n">
-        <v>334.5492523845696</v>
+        <v>334.5492523845697</v>
       </c>
       <c r="F20" t="n">
-        <v>334.5492523845696</v>
+        <v>334.5492523845697</v>
       </c>
       <c r="G20" t="n">
-        <v>334.5492523845696</v>
+        <v>334.5492523845697</v>
       </c>
       <c r="H20" t="n">
-        <v>334.5492523845696</v>
+        <v>334.5492523845697</v>
       </c>
       <c r="I20" t="n">
         <v>240.5393448550616</v>
       </c>
       <c r="J20" t="n">
-        <v>75.74597459497525</v>
+        <v>75.74597459497527</v>
       </c>
       <c r="K20" t="n">
-        <v>5.175029699350098</v>
+        <v>5.175029699350105</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28840,7 +28840,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>13.33728430081828</v>
+        <v>13.33728430081829</v>
       </c>
       <c r="Q20" t="n">
         <v>88.39403938744573</v>
@@ -28852,22 +28852,22 @@
         <v>227.2389374904774</v>
       </c>
       <c r="T20" t="n">
-        <v>222.4124663777658</v>
+        <v>304.6939634747674</v>
       </c>
       <c r="U20" t="n">
-        <v>332.4310624156335</v>
+        <v>250.1495653186316</v>
       </c>
       <c r="V20" t="n">
-        <v>334.5492523845696</v>
+        <v>334.5492523845697</v>
       </c>
       <c r="W20" t="n">
-        <v>334.5492523845696</v>
+        <v>334.5492523845697</v>
       </c>
       <c r="X20" t="n">
-        <v>334.5492523845696</v>
+        <v>334.5492523845697</v>
       </c>
       <c r="Y20" t="n">
-        <v>334.5492523845696</v>
+        <v>334.5492523845697</v>
       </c>
     </row>
     <row r="21">
@@ -28886,19 +28886,19 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>153.2494270938023</v>
       </c>
       <c r="F21" t="n">
-        <v>140.2452943739309</v>
+        <v>72.0017310532794</v>
       </c>
       <c r="G21" t="n">
-        <v>61.91636766865739</v>
+        <v>61.91636766865748</v>
       </c>
       <c r="H21" t="n">
-        <v>38.85076264200431</v>
+        <v>125.6724707086533</v>
       </c>
       <c r="I21" t="n">
-        <v>20.3169189279295</v>
+        <v>20.31691892792959</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28995,7 +28995,7 @@
         <v>15.68256630572604</v>
       </c>
       <c r="O22" t="n">
-        <v>36.70523308254137</v>
+        <v>36.70523308254138</v>
       </c>
       <c r="P22" t="n">
         <v>57.81660688993938</v>
@@ -29035,34 +29035,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>334.5492523845696</v>
+        <v>334.5492523845697</v>
       </c>
       <c r="C23" t="n">
-        <v>334.5492523845696</v>
+        <v>334.5492523845697</v>
       </c>
       <c r="D23" t="n">
-        <v>334.5492523845696</v>
+        <v>334.5492523845697</v>
       </c>
       <c r="E23" t="n">
-        <v>334.5492523845696</v>
+        <v>334.5492523845697</v>
       </c>
       <c r="F23" t="n">
-        <v>334.5492523845696</v>
+        <v>334.5492523845697</v>
       </c>
       <c r="G23" t="n">
-        <v>334.5492523845696</v>
+        <v>334.5492523845697</v>
       </c>
       <c r="H23" t="n">
-        <v>334.5492523845696</v>
+        <v>334.5492523845697</v>
       </c>
       <c r="I23" t="n">
         <v>240.5393448550616</v>
       </c>
       <c r="J23" t="n">
-        <v>75.74597459497525</v>
+        <v>75.74597459497527</v>
       </c>
       <c r="K23" t="n">
-        <v>5.175029699350098</v>
+        <v>5.175029699350105</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29077,7 +29077,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>13.33728430081828</v>
+        <v>13.33728430081829</v>
       </c>
       <c r="Q23" t="n">
         <v>88.39403938744573</v>
@@ -29092,19 +29092,19 @@
         <v>222.4124663777658</v>
       </c>
       <c r="U23" t="n">
-        <v>332.4310624156327</v>
+        <v>334.5492523845697</v>
       </c>
       <c r="V23" t="n">
-        <v>334.5492523845696</v>
+        <v>332.4310624156331</v>
       </c>
       <c r="W23" t="n">
-        <v>334.5492523845696</v>
+        <v>334.5492523845697</v>
       </c>
       <c r="X23" t="n">
-        <v>334.5492523845696</v>
+        <v>334.5492523845697</v>
       </c>
       <c r="Y23" t="n">
-        <v>334.5492523845696</v>
+        <v>334.5492523845697</v>
       </c>
     </row>
     <row r="24">
@@ -29120,22 +29120,22 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>140.5941703305812</v>
       </c>
       <c r="E24" t="n">
-        <v>153.2494270938025</v>
+        <v>85.00586377315075</v>
       </c>
       <c r="F24" t="n">
-        <v>72.00173105327953</v>
+        <v>72.00173105327941</v>
       </c>
       <c r="G24" t="n">
-        <v>61.91636766865761</v>
+        <v>61.91636766865749</v>
       </c>
       <c r="H24" t="n">
         <v>125.6724707086533</v>
       </c>
       <c r="I24" t="n">
-        <v>20.31691892792972</v>
+        <v>107.1386269945785</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29232,7 +29232,7 @@
         <v>15.68256630572604</v>
       </c>
       <c r="O25" t="n">
-        <v>36.70523308254137</v>
+        <v>36.70523308254138</v>
       </c>
       <c r="P25" t="n">
         <v>57.81660688993938</v>
@@ -29302,7 +29302,7 @@
         <v>212.8393079519278</v>
       </c>
       <c r="L26" t="n">
-        <v>212.8393079519256</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="M26" t="n">
         <v>212.8393079519278</v>
@@ -29396,7 +29396,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.036068026875146</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>134.3144462547807</v>
@@ -29408,16 +29408,16 @@
         <v>212.8393079519278</v>
       </c>
       <c r="U27" t="n">
+        <v>9.65671457421675</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
         <v>212.8393079519278</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>3.620646547341437</v>
       </c>
       <c r="Y27" t="n">
         <v>212.8393079519278</v>
@@ -29430,16 +29430,16 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>177.6169206649681</v>
+      </c>
+      <c r="C28" t="n">
         <v>212.8393079519278</v>
       </c>
-      <c r="C28" t="n">
-        <v>166.4571809719723</v>
-      </c>
       <c r="D28" t="n">
-        <v>145.1826502507107</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="E28" t="n">
-        <v>141.676141212225</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="F28" t="n">
         <v>138.9268822184467</v>
@@ -29448,7 +29448,7 @@
         <v>168.6953014514208</v>
       </c>
       <c r="H28" t="n">
-        <v>165.7757334795251</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="I28" t="n">
         <v>164.6883657250528</v>
@@ -29457,19 +29457,19 @@
         <v>119.8526328486804</v>
       </c>
       <c r="K28" t="n">
-        <v>66.39406177691131</v>
+        <v>71.18840899981728</v>
       </c>
       <c r="L28" t="n">
         <v>31.33805968349146</v>
       </c>
       <c r="M28" t="n">
-        <v>40.40682998962038</v>
+        <v>24.35887319852013</v>
       </c>
       <c r="N28" t="n">
         <v>15.68256630572604</v>
       </c>
       <c r="O28" t="n">
-        <v>212.8393079519278</v>
+        <v>36.70523308254138</v>
       </c>
       <c r="P28" t="n">
         <v>57.81660688993938</v>
@@ -29478,7 +29478,7 @@
         <v>126.7586570094679</v>
       </c>
       <c r="R28" t="n">
-        <v>212.8393079519278</v>
+        <v>203.1838537831904</v>
       </c>
       <c r="S28" t="n">
         <v>212.8393079519278</v>
@@ -29542,7 +29542,7 @@
         <v>212.8393079519278</v>
       </c>
       <c r="M29" t="n">
-        <v>212.8393079519266</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="N29" t="n">
         <v>212.8393079519278</v>
@@ -29551,7 +29551,7 @@
         <v>212.8393079519278</v>
       </c>
       <c r="P29" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519268</v>
       </c>
       <c r="Q29" t="n">
         <v>212.8393079519278</v>
@@ -29591,16 +29591,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>42.44420025223043</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
         <v>148.7380757353064</v>
@@ -29633,7 +29633,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.036068026875146</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>134.3144462547807</v>
@@ -29648,13 +29648,13 @@
         <v>212.8393079519278</v>
       </c>
       <c r="V30" t="n">
-        <v>212.8393079519278</v>
+        <v>168.8290296507954</v>
       </c>
       <c r="W30" t="n">
-        <v>212.8393079519278</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>212.8393079519278</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>212.8393079519278</v>
@@ -29676,7 +29676,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E31" t="n">
-        <v>141.676141212225</v>
+        <v>192.9464852902855</v>
       </c>
       <c r="F31" t="n">
         <v>138.9268822184467</v>
@@ -29700,19 +29700,19 @@
         <v>31.33805968349146</v>
       </c>
       <c r="M31" t="n">
-        <v>165.6826412035066</v>
+        <v>24.35887319852013</v>
       </c>
       <c r="N31" t="n">
         <v>15.68256630572604</v>
       </c>
       <c r="O31" t="n">
-        <v>36.70523308254137</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="P31" t="n">
         <v>57.81660688993938</v>
       </c>
       <c r="Q31" t="n">
-        <v>212.8393079519278</v>
+        <v>126.7586570094679</v>
       </c>
       <c r="R31" t="n">
         <v>212.8393079519278</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="C32" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="D32" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="E32" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="F32" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="G32" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="H32" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="I32" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="J32" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="K32" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="L32" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="M32" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="N32" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519266</v>
       </c>
       <c r="O32" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="P32" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="R32" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="S32" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="T32" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="U32" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="V32" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="W32" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="X32" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="Y32" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
     </row>
     <row r="33">
@@ -29831,16 +29831,16 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>42.44420025223054</v>
       </c>
       <c r="G33" t="n">
-        <v>79.05776504996189</v>
+        <v>148.7380757353064</v>
       </c>
       <c r="H33" t="n">
         <v>125.6724707086533</v>
@@ -29870,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.036068026875149</v>
       </c>
       <c r="R33" t="n">
         <v>134.3144462547807</v>
@@ -29879,22 +29879,22 @@
         <v>191.4695228506099</v>
       </c>
       <c r="T33" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="U33" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="W33" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="X33" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="Y33" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
     </row>
     <row r="34">
@@ -29904,19 +29904,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>177.6169206649681</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="C34" t="n">
-        <v>166.4571809719723</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="D34" t="n">
-        <v>145.1826502507107</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="E34" t="n">
-        <v>141.676141212225</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="F34" t="n">
-        <v>138.9268822184467</v>
+        <v>155.5624166267954</v>
       </c>
       <c r="G34" t="n">
         <v>168.6953014514208</v>
@@ -29943,10 +29943,10 @@
         <v>15.68256630572604</v>
       </c>
       <c r="O34" t="n">
-        <v>212.8393079519277</v>
+        <v>36.70523308254138</v>
       </c>
       <c r="P34" t="n">
-        <v>118.7424051367374</v>
+        <v>57.81660688993938</v>
       </c>
       <c r="Q34" t="n">
         <v>126.7586570094679</v>
@@ -29955,25 +29955,25 @@
         <v>203.1838537831904</v>
       </c>
       <c r="S34" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="T34" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="U34" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="V34" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="W34" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="X34" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="Y34" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
     </row>
     <row r="35">
@@ -30007,25 +30007,25 @@
         <v>236.9135307750558</v>
       </c>
       <c r="J35" t="n">
-        <v>236.9135307750558</v>
+        <v>120.9430150698729</v>
       </c>
       <c r="K35" t="n">
-        <v>236.9135307750558</v>
+        <v>5.175029699350105</v>
       </c>
       <c r="L35" t="n">
-        <v>236.9135307750558</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>236.9135307750558</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>236.9135307750558</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>236.9135307750558</v>
       </c>
       <c r="P35" t="n">
-        <v>126.1180447692228</v>
+        <v>236.9135307750558</v>
       </c>
       <c r="Q35" t="n">
         <v>236.9135307750558</v>
@@ -30062,13 +30062,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>22.58141643263968</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
         <v>171.8275718397997</v>
@@ -30107,7 +30107,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.036068026875146</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>134.3144462547807</v>
@@ -30119,19 +30119,19 @@
         <v>214.9446082044576</v>
       </c>
       <c r="U36" t="n">
-        <v>236.9135307750558</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>236.9135307750558</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>236.9135307750558</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>209.845744091517</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -30144,7 +30144,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C37" t="n">
-        <v>166.4571809719723</v>
+        <v>236.9135307750558</v>
       </c>
       <c r="D37" t="n">
         <v>145.1826502507107</v>
@@ -30159,7 +30159,7 @@
         <v>168.6953014514208</v>
       </c>
       <c r="H37" t="n">
-        <v>165.7757334795251</v>
+        <v>196.2097063443333</v>
       </c>
       <c r="I37" t="n">
         <v>164.6883657250528</v>
@@ -30180,10 +30180,10 @@
         <v>15.68256630572604</v>
       </c>
       <c r="O37" t="n">
-        <v>36.70523308254137</v>
+        <v>36.70523308254138</v>
       </c>
       <c r="P37" t="n">
-        <v>153.6809047539288</v>
+        <v>57.81660688993938</v>
       </c>
       <c r="Q37" t="n">
         <v>126.7586570094679</v>
@@ -30192,10 +30192,10 @@
         <v>203.1838537831904</v>
       </c>
       <c r="S37" t="n">
-        <v>235.3426566118388</v>
+        <v>236.9135307750558</v>
       </c>
       <c r="T37" t="n">
-        <v>223.7381717812877</v>
+        <v>236.9135307750558</v>
       </c>
       <c r="U37" t="n">
         <v>236.9135307750558</v>
@@ -30210,7 +30210,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y37" t="n">
-        <v>236.9135307750558</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="38">
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750558</v>
       </c>
       <c r="C38" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750558</v>
       </c>
       <c r="D38" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750558</v>
       </c>
       <c r="E38" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750558</v>
       </c>
       <c r="F38" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750558</v>
       </c>
       <c r="G38" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750558</v>
       </c>
       <c r="H38" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750558</v>
       </c>
       <c r="I38" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750558</v>
       </c>
       <c r="J38" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750558</v>
       </c>
       <c r="K38" t="n">
-        <v>126.1180447692236</v>
+        <v>236.9135307750558</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>236.9135307750557</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>236.9135307750557</v>
+        <v>126.1180447692231</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>236.9135307750558</v>
       </c>
       <c r="P38" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750558</v>
       </c>
       <c r="Q38" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750558</v>
       </c>
       <c r="R38" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750558</v>
       </c>
       <c r="S38" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750558</v>
       </c>
       <c r="T38" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750558</v>
       </c>
       <c r="U38" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750558</v>
       </c>
       <c r="V38" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750558</v>
       </c>
       <c r="W38" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750558</v>
       </c>
       <c r="X38" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750558</v>
       </c>
       <c r="Y38" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750558</v>
       </c>
     </row>
     <row r="39">
@@ -30299,10 +30299,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>80.72201579553202</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>159.1723150765785</v>
@@ -30344,7 +30344,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.036068026875146</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>134.3144462547807</v>
@@ -30356,13 +30356,13 @@
         <v>214.9446082044576</v>
       </c>
       <c r="U39" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750558</v>
       </c>
       <c r="V39" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750558</v>
       </c>
       <c r="W39" t="n">
-        <v>236.9135307750557</v>
+        <v>146.9211201997969</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -30387,7 +30387,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E40" t="n">
-        <v>227.572388513304</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F40" t="n">
         <v>138.9268822184467</v>
@@ -30396,7 +30396,7 @@
         <v>168.6953014514208</v>
       </c>
       <c r="H40" t="n">
-        <v>165.7757334795251</v>
+        <v>236.9135307750558</v>
       </c>
       <c r="I40" t="n">
         <v>164.6883657250528</v>
@@ -30417,7 +30417,7 @@
         <v>15.68256630572604</v>
       </c>
       <c r="O40" t="n">
-        <v>36.70523308254137</v>
+        <v>36.70523308254138</v>
       </c>
       <c r="P40" t="n">
         <v>57.81660688993938</v>
@@ -30429,25 +30429,25 @@
         <v>203.1838537831904</v>
       </c>
       <c r="S40" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750558</v>
       </c>
       <c r="T40" t="n">
-        <v>236.9135307750557</v>
+        <v>231.8997228197161</v>
       </c>
       <c r="U40" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750558</v>
       </c>
       <c r="V40" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750558</v>
       </c>
       <c r="W40" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750558</v>
       </c>
       <c r="X40" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750558</v>
       </c>
       <c r="Y40" t="n">
-        <v>217.1412728141684</v>
+        <v>236.9135307750558</v>
       </c>
     </row>
     <row r="41">
@@ -30457,37 +30457,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="C41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="D41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="E41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="F41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="G41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="H41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="I41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="J41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="K41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="L41" t="n">
-        <v>236.9135307750558</v>
+        <v>126.1180447692235</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -30496,37 +30496,37 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>126.1180447692227</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="P41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="Q41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="R41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="S41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="T41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="U41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="V41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="W41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="X41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="Y41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
     </row>
     <row r="42">
@@ -30536,7 +30536,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>136.1534630730968</v>
       </c>
       <c r="C42" t="n">
         <v>187.5181515243659</v>
@@ -30581,7 +30581,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.036068026875146</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>134.3144462547807</v>
@@ -30593,10 +30593,10 @@
         <v>214.9446082044576</v>
       </c>
       <c r="U42" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="V42" t="n">
-        <v>190.2804314236116</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -30627,13 +30627,13 @@
         <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
-        <v>138.9268822184467</v>
+        <v>168.679407590808</v>
       </c>
       <c r="G43" t="n">
         <v>168.6953014514208</v>
       </c>
       <c r="H43" t="n">
-        <v>165.7757334795251</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="I43" t="n">
         <v>164.6883657250528</v>
@@ -30648,13 +30648,13 @@
         <v>31.33805968349146</v>
       </c>
       <c r="M43" t="n">
-        <v>120.2231710625096</v>
+        <v>24.35887319852013</v>
       </c>
       <c r="N43" t="n">
         <v>15.68256630572604</v>
       </c>
       <c r="O43" t="n">
-        <v>36.70523308254137</v>
+        <v>36.70523308254138</v>
       </c>
       <c r="P43" t="n">
         <v>57.81660688993938</v>
@@ -30666,25 +30666,25 @@
         <v>203.1838537831904</v>
       </c>
       <c r="S43" t="n">
-        <v>235.3426566118388</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="T43" t="n">
-        <v>223.7381717812877</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="U43" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="V43" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="W43" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
       </c>
       <c r="Y43" t="n">
-        <v>236.9135307750558</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="44">
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="C44" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="D44" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="E44" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="F44" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="G44" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="H44" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="I44" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="J44" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="K44" t="n">
-        <v>236.9135307750558</v>
+        <v>5.175029699350105</v>
       </c>
       <c r="L44" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="M44" t="n">
-        <v>126.1180447692227</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>120.9430150698734</v>
       </c>
       <c r="P44" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="Q44" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="R44" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="S44" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="T44" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="U44" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="V44" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="X44" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="Y44" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
     </row>
     <row r="45">
@@ -30773,19 +30773,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>135.8842092852175</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>41.27274122273604</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>148.7380757353064</v>
@@ -30830,19 +30830,19 @@
         <v>214.9446082044576</v>
       </c>
       <c r="U45" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="V45" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="W45" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>177.6169206649681</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="C46" t="n">
-        <v>166.4571809719723</v>
+        <v>188.0307933590612</v>
       </c>
       <c r="D46" t="n">
         <v>145.1826502507107</v>
@@ -30867,7 +30867,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>236.9135307750558</v>
+        <v>168.6953014514208</v>
       </c>
       <c r="H46" t="n">
         <v>165.7757334795251</v>
@@ -30891,7 +30891,7 @@
         <v>15.68256630572604</v>
       </c>
       <c r="O46" t="n">
-        <v>36.70523308254137</v>
+        <v>36.70523308254138</v>
       </c>
       <c r="P46" t="n">
         <v>57.81660688993938</v>
@@ -30900,28 +30900,28 @@
         <v>126.7586570094679</v>
       </c>
       <c r="R46" t="n">
-        <v>214.2649727935146</v>
+        <v>203.1838537831904</v>
       </c>
       <c r="S46" t="n">
-        <v>236.9135307750558</v>
+        <v>235.3426566118388</v>
       </c>
       <c r="T46" t="n">
         <v>223.7381717812877</v>
       </c>
       <c r="U46" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="V46" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="W46" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="X46" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="Y46" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
     </row>
   </sheetData>
@@ -31762,31 +31762,31 @@
         <v>35.55542229607821</v>
       </c>
       <c r="K11" t="n">
-        <v>53.28836122941143</v>
+        <v>53.28836122941142</v>
       </c>
       <c r="L11" t="n">
         <v>66.10892418431331</v>
       </c>
       <c r="M11" t="n">
-        <v>73.55891598104529</v>
+        <v>73.55891598104527</v>
       </c>
       <c r="N11" t="n">
         <v>74.74917614509756</v>
       </c>
       <c r="O11" t="n">
-        <v>70.58352739673158</v>
+        <v>70.58352739673157</v>
       </c>
       <c r="P11" t="n">
         <v>60.24140762548981</v>
       </c>
       <c r="Q11" t="n">
-        <v>45.23878831176442</v>
+        <v>45.23878831176441</v>
       </c>
       <c r="R11" t="n">
         <v>26.31506556274493</v>
       </c>
       <c r="S11" t="n">
-        <v>9.546169287581641</v>
+        <v>9.546169287581639</v>
       </c>
       <c r="T11" t="n">
         <v>1.83382802222221</v>
@@ -31835,10 +31835,10 @@
         <v>2.16474621424342</v>
       </c>
       <c r="I12" t="n">
-        <v>7.71719245313844</v>
+        <v>7.717192453138439</v>
       </c>
       <c r="J12" t="n">
-        <v>21.17656594051658</v>
+        <v>21.17656594051657</v>
       </c>
       <c r="K12" t="n">
         <v>36.19412414613986</v>
@@ -31847,16 +31847,16 @@
         <v>48.66746654683038</v>
       </c>
       <c r="M12" t="n">
-        <v>56.79263796405192</v>
+        <v>56.79263796405191</v>
       </c>
       <c r="N12" t="n">
-        <v>58.29577009919189</v>
+        <v>58.29577009919188</v>
       </c>
       <c r="O12" t="n">
-        <v>53.32924063763069</v>
+        <v>53.32924063763068</v>
       </c>
       <c r="P12" t="n">
-        <v>42.801417200604</v>
+        <v>42.80141720060399</v>
       </c>
       <c r="Q12" t="n">
         <v>28.61161390524091</v>
@@ -31865,10 +31865,10 @@
         <v>13.91650654351946</v>
       </c>
       <c r="S12" t="n">
-        <v>4.163351597330098</v>
+        <v>4.163351597330097</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9034522120298374</v>
+        <v>0.9034522120298372</v>
       </c>
       <c r="U12" t="n">
         <v>0.01474622761746199</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1879136765241604</v>
+        <v>0.1879136765241603</v>
       </c>
       <c r="H13" t="n">
         <v>1.670723414914809</v>
       </c>
       <c r="I13" t="n">
-        <v>5.65107674492657</v>
+        <v>5.651076744926569</v>
       </c>
       <c r="J13" t="n">
         <v>13.28549693025814</v>
@@ -31929,13 +31929,13 @@
         <v>29.45632294823724</v>
       </c>
       <c r="N13" t="n">
-        <v>28.75591742664722</v>
+        <v>28.75591742664721</v>
       </c>
       <c r="O13" t="n">
         <v>26.56074402361497</v>
       </c>
       <c r="P13" t="n">
-        <v>22.72730502252208</v>
+        <v>22.72730502252207</v>
       </c>
       <c r="Q13" t="n">
         <v>15.7352079496731</v>
@@ -31947,7 +31947,7 @@
         <v>3.274822889971048</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8029038906032304</v>
+        <v>0.8029038906032303</v>
       </c>
       <c r="U13" t="n">
         <v>0.01024983690131785</v>
@@ -31999,31 +31999,31 @@
         <v>35.55542229607821</v>
       </c>
       <c r="K14" t="n">
-        <v>53.28836122941143</v>
+        <v>53.28836122941142</v>
       </c>
       <c r="L14" t="n">
         <v>66.10892418431331</v>
       </c>
       <c r="M14" t="n">
-        <v>73.55891598104529</v>
+        <v>73.55891598104527</v>
       </c>
       <c r="N14" t="n">
         <v>74.74917614509756</v>
       </c>
       <c r="O14" t="n">
-        <v>70.58352739673158</v>
+        <v>70.58352739673157</v>
       </c>
       <c r="P14" t="n">
         <v>60.24140762548981</v>
       </c>
       <c r="Q14" t="n">
-        <v>45.23878831176442</v>
+        <v>45.23878831176441</v>
       </c>
       <c r="R14" t="n">
         <v>26.31506556274493</v>
       </c>
       <c r="S14" t="n">
-        <v>9.546169287581641</v>
+        <v>9.546169287581639</v>
       </c>
       <c r="T14" t="n">
         <v>1.83382802222221</v>
@@ -32072,10 +32072,10 @@
         <v>2.16474621424342</v>
       </c>
       <c r="I15" t="n">
-        <v>7.71719245313844</v>
+        <v>7.717192453138439</v>
       </c>
       <c r="J15" t="n">
-        <v>21.17656594051658</v>
+        <v>21.17656594051657</v>
       </c>
       <c r="K15" t="n">
         <v>36.19412414613986</v>
@@ -32084,16 +32084,16 @@
         <v>48.66746654683038</v>
       </c>
       <c r="M15" t="n">
-        <v>56.79263796405192</v>
+        <v>56.79263796405191</v>
       </c>
       <c r="N15" t="n">
-        <v>58.29577009919189</v>
+        <v>58.29577009919188</v>
       </c>
       <c r="O15" t="n">
-        <v>53.32924063763069</v>
+        <v>53.32924063763068</v>
       </c>
       <c r="P15" t="n">
-        <v>42.801417200604</v>
+        <v>42.80141720060399</v>
       </c>
       <c r="Q15" t="n">
         <v>28.61161390524091</v>
@@ -32102,10 +32102,10 @@
         <v>13.91650654351946</v>
       </c>
       <c r="S15" t="n">
-        <v>4.163351597330098</v>
+        <v>4.163351597330097</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9034522120298374</v>
+        <v>0.9034522120298372</v>
       </c>
       <c r="U15" t="n">
         <v>0.01474622761746199</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1879136765241604</v>
+        <v>0.1879136765241603</v>
       </c>
       <c r="H16" t="n">
         <v>1.670723414914809</v>
       </c>
       <c r="I16" t="n">
-        <v>5.65107674492657</v>
+        <v>5.651076744926569</v>
       </c>
       <c r="J16" t="n">
         <v>13.28549693025814</v>
@@ -32166,13 +32166,13 @@
         <v>29.45632294823724</v>
       </c>
       <c r="N16" t="n">
-        <v>28.75591742664722</v>
+        <v>28.75591742664721</v>
       </c>
       <c r="O16" t="n">
         <v>26.56074402361497</v>
       </c>
       <c r="P16" t="n">
-        <v>22.72730502252208</v>
+        <v>22.72730502252207</v>
       </c>
       <c r="Q16" t="n">
         <v>15.7352079496731</v>
@@ -32184,7 +32184,7 @@
         <v>3.274822889971048</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8029038906032304</v>
+        <v>0.8029038906032303</v>
       </c>
       <c r="U16" t="n">
         <v>0.01024983690131785</v>
@@ -32236,31 +32236,31 @@
         <v>35.55542229607821</v>
       </c>
       <c r="K17" t="n">
-        <v>53.28836122941143</v>
+        <v>53.28836122941142</v>
       </c>
       <c r="L17" t="n">
         <v>66.10892418431331</v>
       </c>
       <c r="M17" t="n">
-        <v>73.55891598104529</v>
+        <v>73.55891598104527</v>
       </c>
       <c r="N17" t="n">
         <v>74.74917614509756</v>
       </c>
       <c r="O17" t="n">
-        <v>70.58352739673158</v>
+        <v>70.58352739673157</v>
       </c>
       <c r="P17" t="n">
         <v>60.24140762548981</v>
       </c>
       <c r="Q17" t="n">
-        <v>45.23878831176442</v>
+        <v>45.23878831176441</v>
       </c>
       <c r="R17" t="n">
         <v>26.31506556274493</v>
       </c>
       <c r="S17" t="n">
-        <v>9.546169287581641</v>
+        <v>9.546169287581639</v>
       </c>
       <c r="T17" t="n">
         <v>1.83382802222221</v>
@@ -32309,10 +32309,10 @@
         <v>2.16474621424342</v>
       </c>
       <c r="I18" t="n">
-        <v>7.71719245313844</v>
+        <v>7.717192453138439</v>
       </c>
       <c r="J18" t="n">
-        <v>21.17656594051658</v>
+        <v>21.17656594051657</v>
       </c>
       <c r="K18" t="n">
         <v>36.19412414613986</v>
@@ -32321,16 +32321,16 @@
         <v>48.66746654683038</v>
       </c>
       <c r="M18" t="n">
-        <v>56.79263796405192</v>
+        <v>56.79263796405191</v>
       </c>
       <c r="N18" t="n">
-        <v>58.29577009919189</v>
+        <v>58.29577009919188</v>
       </c>
       <c r="O18" t="n">
-        <v>53.32924063763069</v>
+        <v>53.32924063763068</v>
       </c>
       <c r="P18" t="n">
-        <v>42.801417200604</v>
+        <v>42.80141720060399</v>
       </c>
       <c r="Q18" t="n">
         <v>28.61161390524091</v>
@@ -32339,10 +32339,10 @@
         <v>13.91650654351946</v>
       </c>
       <c r="S18" t="n">
-        <v>4.163351597330098</v>
+        <v>4.163351597330097</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9034522120298374</v>
+        <v>0.9034522120298372</v>
       </c>
       <c r="U18" t="n">
         <v>0.01474622761746199</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1879136765241604</v>
+        <v>0.1879136765241603</v>
       </c>
       <c r="H19" t="n">
         <v>1.670723414914809</v>
       </c>
       <c r="I19" t="n">
-        <v>5.65107674492657</v>
+        <v>5.651076744926569</v>
       </c>
       <c r="J19" t="n">
         <v>13.28549693025814</v>
@@ -32403,13 +32403,13 @@
         <v>29.45632294823724</v>
       </c>
       <c r="N19" t="n">
-        <v>28.75591742664722</v>
+        <v>28.75591742664721</v>
       </c>
       <c r="O19" t="n">
         <v>26.56074402361497</v>
       </c>
       <c r="P19" t="n">
-        <v>22.72730502252208</v>
+        <v>22.72730502252207</v>
       </c>
       <c r="Q19" t="n">
         <v>15.7352079496731</v>
@@ -32421,7 +32421,7 @@
         <v>3.274822889971048</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8029038906032304</v>
+        <v>0.8029038906032303</v>
       </c>
       <c r="U19" t="n">
         <v>0.01024983690131785</v>
@@ -32473,31 +32473,31 @@
         <v>35.55542229607821</v>
       </c>
       <c r="K20" t="n">
-        <v>53.28836122941143</v>
+        <v>53.28836122941142</v>
       </c>
       <c r="L20" t="n">
         <v>66.10892418431331</v>
       </c>
       <c r="M20" t="n">
-        <v>73.55891598104529</v>
+        <v>73.55891598104527</v>
       </c>
       <c r="N20" t="n">
         <v>74.74917614509756</v>
       </c>
       <c r="O20" t="n">
-        <v>70.58352739673158</v>
+        <v>70.58352739673157</v>
       </c>
       <c r="P20" t="n">
         <v>60.24140762548981</v>
       </c>
       <c r="Q20" t="n">
-        <v>45.23878831176442</v>
+        <v>45.23878831176441</v>
       </c>
       <c r="R20" t="n">
         <v>26.31506556274493</v>
       </c>
       <c r="S20" t="n">
-        <v>9.546169287581641</v>
+        <v>9.546169287581639</v>
       </c>
       <c r="T20" t="n">
         <v>1.83382802222221</v>
@@ -32546,10 +32546,10 @@
         <v>2.16474621424342</v>
       </c>
       <c r="I21" t="n">
-        <v>7.71719245313844</v>
+        <v>7.717192453138439</v>
       </c>
       <c r="J21" t="n">
-        <v>21.17656594051658</v>
+        <v>21.17656594051657</v>
       </c>
       <c r="K21" t="n">
         <v>36.19412414613986</v>
@@ -32558,16 +32558,16 @@
         <v>48.66746654683038</v>
       </c>
       <c r="M21" t="n">
-        <v>56.79263796405192</v>
+        <v>56.79263796405191</v>
       </c>
       <c r="N21" t="n">
-        <v>58.29577009919189</v>
+        <v>58.29577009919188</v>
       </c>
       <c r="O21" t="n">
-        <v>53.32924063763069</v>
+        <v>53.32924063763068</v>
       </c>
       <c r="P21" t="n">
-        <v>42.801417200604</v>
+        <v>42.80141720060399</v>
       </c>
       <c r="Q21" t="n">
         <v>28.61161390524091</v>
@@ -32576,10 +32576,10 @@
         <v>13.91650654351946</v>
       </c>
       <c r="S21" t="n">
-        <v>4.163351597330098</v>
+        <v>4.163351597330097</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9034522120298374</v>
+        <v>0.9034522120298372</v>
       </c>
       <c r="U21" t="n">
         <v>0.01474622761746199</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1879136765241604</v>
+        <v>0.1879136765241603</v>
       </c>
       <c r="H22" t="n">
         <v>1.670723414914809</v>
       </c>
       <c r="I22" t="n">
-        <v>5.65107674492657</v>
+        <v>5.651076744926569</v>
       </c>
       <c r="J22" t="n">
         <v>13.28549693025814</v>
@@ -32640,13 +32640,13 @@
         <v>29.45632294823724</v>
       </c>
       <c r="N22" t="n">
-        <v>28.75591742664722</v>
+        <v>28.75591742664721</v>
       </c>
       <c r="O22" t="n">
         <v>26.56074402361497</v>
       </c>
       <c r="P22" t="n">
-        <v>22.72730502252208</v>
+        <v>22.72730502252207</v>
       </c>
       <c r="Q22" t="n">
         <v>15.7352079496731</v>
@@ -32658,7 +32658,7 @@
         <v>3.274822889971048</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8029038906032304</v>
+        <v>0.8029038906032303</v>
       </c>
       <c r="U22" t="n">
         <v>0.01024983690131785</v>
@@ -32710,31 +32710,31 @@
         <v>35.55542229607821</v>
       </c>
       <c r="K23" t="n">
-        <v>53.28836122941143</v>
+        <v>53.28836122941142</v>
       </c>
       <c r="L23" t="n">
         <v>66.10892418431331</v>
       </c>
       <c r="M23" t="n">
-        <v>73.55891598104529</v>
+        <v>73.55891598104527</v>
       </c>
       <c r="N23" t="n">
         <v>74.74917614509756</v>
       </c>
       <c r="O23" t="n">
-        <v>70.58352739673158</v>
+        <v>70.58352739673157</v>
       </c>
       <c r="P23" t="n">
         <v>60.24140762548981</v>
       </c>
       <c r="Q23" t="n">
-        <v>45.23878831176442</v>
+        <v>45.23878831176441</v>
       </c>
       <c r="R23" t="n">
         <v>26.31506556274493</v>
       </c>
       <c r="S23" t="n">
-        <v>9.546169287581641</v>
+        <v>9.546169287581639</v>
       </c>
       <c r="T23" t="n">
         <v>1.83382802222221</v>
@@ -32783,10 +32783,10 @@
         <v>2.16474621424342</v>
       </c>
       <c r="I24" t="n">
-        <v>7.71719245313844</v>
+        <v>7.717192453138439</v>
       </c>
       <c r="J24" t="n">
-        <v>21.17656594051658</v>
+        <v>21.17656594051657</v>
       </c>
       <c r="K24" t="n">
         <v>36.19412414613986</v>
@@ -32795,16 +32795,16 @@
         <v>48.66746654683038</v>
       </c>
       <c r="M24" t="n">
-        <v>56.79263796405192</v>
+        <v>56.79263796405191</v>
       </c>
       <c r="N24" t="n">
-        <v>58.29577009919189</v>
+        <v>58.29577009919188</v>
       </c>
       <c r="O24" t="n">
-        <v>53.32924063763069</v>
+        <v>53.32924063763068</v>
       </c>
       <c r="P24" t="n">
-        <v>42.801417200604</v>
+        <v>42.80141720060399</v>
       </c>
       <c r="Q24" t="n">
         <v>28.61161390524091</v>
@@ -32813,10 +32813,10 @@
         <v>13.91650654351946</v>
       </c>
       <c r="S24" t="n">
-        <v>4.163351597330098</v>
+        <v>4.163351597330097</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9034522120298374</v>
+        <v>0.9034522120298372</v>
       </c>
       <c r="U24" t="n">
         <v>0.01474622761746199</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1879136765241604</v>
+        <v>0.1879136765241603</v>
       </c>
       <c r="H25" t="n">
         <v>1.670723414914809</v>
       </c>
       <c r="I25" t="n">
-        <v>5.65107674492657</v>
+        <v>5.651076744926569</v>
       </c>
       <c r="J25" t="n">
         <v>13.28549693025814</v>
@@ -32877,13 +32877,13 @@
         <v>29.45632294823724</v>
       </c>
       <c r="N25" t="n">
-        <v>28.75591742664722</v>
+        <v>28.75591742664721</v>
       </c>
       <c r="O25" t="n">
         <v>26.56074402361497</v>
       </c>
       <c r="P25" t="n">
-        <v>22.72730502252208</v>
+        <v>22.72730502252207</v>
       </c>
       <c r="Q25" t="n">
         <v>15.7352079496731</v>
@@ -32895,7 +32895,7 @@
         <v>3.274822889971048</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8029038906032304</v>
+        <v>0.8029038906032303</v>
       </c>
       <c r="U25" t="n">
         <v>0.01024983690131785</v>
@@ -32947,31 +32947,31 @@
         <v>35.55542229607821</v>
       </c>
       <c r="K26" t="n">
-        <v>53.28836122941143</v>
+        <v>53.28836122941142</v>
       </c>
       <c r="L26" t="n">
         <v>66.10892418431331</v>
       </c>
       <c r="M26" t="n">
-        <v>73.55891598104529</v>
+        <v>73.55891598104527</v>
       </c>
       <c r="N26" t="n">
         <v>74.74917614509756</v>
       </c>
       <c r="O26" t="n">
-        <v>70.58352739673158</v>
+        <v>70.58352739673157</v>
       </c>
       <c r="P26" t="n">
         <v>60.24140762548981</v>
       </c>
       <c r="Q26" t="n">
-        <v>45.23878831176442</v>
+        <v>45.23878831176441</v>
       </c>
       <c r="R26" t="n">
         <v>26.31506556274493</v>
       </c>
       <c r="S26" t="n">
-        <v>9.546169287581641</v>
+        <v>9.546169287581639</v>
       </c>
       <c r="T26" t="n">
         <v>1.83382802222221</v>
@@ -33020,10 +33020,10 @@
         <v>2.16474621424342</v>
       </c>
       <c r="I27" t="n">
-        <v>7.71719245313844</v>
+        <v>7.717192453138439</v>
       </c>
       <c r="J27" t="n">
-        <v>21.17656594051658</v>
+        <v>21.17656594051657</v>
       </c>
       <c r="K27" t="n">
         <v>36.19412414613986</v>
@@ -33032,16 +33032,16 @@
         <v>48.66746654683038</v>
       </c>
       <c r="M27" t="n">
-        <v>56.79263796405192</v>
+        <v>56.79263796405191</v>
       </c>
       <c r="N27" t="n">
-        <v>58.29577009919189</v>
+        <v>58.29577009919188</v>
       </c>
       <c r="O27" t="n">
-        <v>53.32924063763069</v>
+        <v>53.32924063763068</v>
       </c>
       <c r="P27" t="n">
-        <v>42.801417200604</v>
+        <v>42.80141720060399</v>
       </c>
       <c r="Q27" t="n">
         <v>28.61161390524091</v>
@@ -33050,10 +33050,10 @@
         <v>13.91650654351946</v>
       </c>
       <c r="S27" t="n">
-        <v>4.163351597330098</v>
+        <v>4.163351597330097</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9034522120298374</v>
+        <v>0.9034522120298372</v>
       </c>
       <c r="U27" t="n">
         <v>0.01474622761746199</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1879136765241604</v>
+        <v>0.1879136765241603</v>
       </c>
       <c r="H28" t="n">
         <v>1.670723414914809</v>
       </c>
       <c r="I28" t="n">
-        <v>5.65107674492657</v>
+        <v>5.651076744926569</v>
       </c>
       <c r="J28" t="n">
         <v>13.28549693025814</v>
@@ -33114,13 +33114,13 @@
         <v>29.45632294823724</v>
       </c>
       <c r="N28" t="n">
-        <v>28.75591742664722</v>
+        <v>28.75591742664721</v>
       </c>
       <c r="O28" t="n">
         <v>26.56074402361497</v>
       </c>
       <c r="P28" t="n">
-        <v>22.72730502252208</v>
+        <v>22.72730502252207</v>
       </c>
       <c r="Q28" t="n">
         <v>15.7352079496731</v>
@@ -33132,7 +33132,7 @@
         <v>3.274822889971048</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8029038906032304</v>
+        <v>0.8029038906032303</v>
       </c>
       <c r="U28" t="n">
         <v>0.01024983690131785</v>
@@ -33184,31 +33184,31 @@
         <v>35.55542229607821</v>
       </c>
       <c r="K29" t="n">
-        <v>53.28836122941143</v>
+        <v>53.28836122941142</v>
       </c>
       <c r="L29" t="n">
         <v>66.10892418431331</v>
       </c>
       <c r="M29" t="n">
-        <v>73.55891598104529</v>
+        <v>73.55891598104527</v>
       </c>
       <c r="N29" t="n">
         <v>74.74917614509756</v>
       </c>
       <c r="O29" t="n">
-        <v>70.58352739673158</v>
+        <v>70.58352739673157</v>
       </c>
       <c r="P29" t="n">
         <v>60.24140762548981</v>
       </c>
       <c r="Q29" t="n">
-        <v>45.23878831176442</v>
+        <v>45.23878831176441</v>
       </c>
       <c r="R29" t="n">
         <v>26.31506556274493</v>
       </c>
       <c r="S29" t="n">
-        <v>9.546169287581641</v>
+        <v>9.546169287581639</v>
       </c>
       <c r="T29" t="n">
         <v>1.83382802222221</v>
@@ -33257,10 +33257,10 @@
         <v>2.16474621424342</v>
       </c>
       <c r="I30" t="n">
-        <v>7.71719245313844</v>
+        <v>7.717192453138439</v>
       </c>
       <c r="J30" t="n">
-        <v>21.17656594051658</v>
+        <v>21.17656594051657</v>
       </c>
       <c r="K30" t="n">
         <v>36.19412414613986</v>
@@ -33269,16 +33269,16 @@
         <v>48.66746654683038</v>
       </c>
       <c r="M30" t="n">
-        <v>56.79263796405192</v>
+        <v>56.79263796405191</v>
       </c>
       <c r="N30" t="n">
-        <v>58.29577009919189</v>
+        <v>58.29577009919188</v>
       </c>
       <c r="O30" t="n">
-        <v>53.32924063763069</v>
+        <v>53.32924063763068</v>
       </c>
       <c r="P30" t="n">
-        <v>42.801417200604</v>
+        <v>42.80141720060399</v>
       </c>
       <c r="Q30" t="n">
         <v>28.61161390524091</v>
@@ -33287,10 +33287,10 @@
         <v>13.91650654351946</v>
       </c>
       <c r="S30" t="n">
-        <v>4.163351597330098</v>
+        <v>4.163351597330097</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9034522120298374</v>
+        <v>0.9034522120298372</v>
       </c>
       <c r="U30" t="n">
         <v>0.01474622761746199</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1879136765241604</v>
+        <v>0.1879136765241603</v>
       </c>
       <c r="H31" t="n">
         <v>1.670723414914809</v>
       </c>
       <c r="I31" t="n">
-        <v>5.65107674492657</v>
+        <v>5.651076744926569</v>
       </c>
       <c r="J31" t="n">
         <v>13.28549693025814</v>
@@ -33351,13 +33351,13 @@
         <v>29.45632294823724</v>
       </c>
       <c r="N31" t="n">
-        <v>28.75591742664722</v>
+        <v>28.75591742664721</v>
       </c>
       <c r="O31" t="n">
         <v>26.56074402361497</v>
       </c>
       <c r="P31" t="n">
-        <v>22.72730502252208</v>
+        <v>22.72730502252207</v>
       </c>
       <c r="Q31" t="n">
         <v>15.7352079496731</v>
@@ -33369,7 +33369,7 @@
         <v>3.274822889971048</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8029038906032304</v>
+        <v>0.8029038906032303</v>
       </c>
       <c r="U31" t="n">
         <v>0.01024983690131785</v>
@@ -33421,31 +33421,31 @@
         <v>35.55542229607821</v>
       </c>
       <c r="K32" t="n">
-        <v>53.28836122941143</v>
+        <v>53.28836122941142</v>
       </c>
       <c r="L32" t="n">
         <v>66.10892418431331</v>
       </c>
       <c r="M32" t="n">
-        <v>73.55891598104529</v>
+        <v>73.55891598104527</v>
       </c>
       <c r="N32" t="n">
         <v>74.74917614509756</v>
       </c>
       <c r="O32" t="n">
-        <v>70.58352739673158</v>
+        <v>70.58352739673157</v>
       </c>
       <c r="P32" t="n">
         <v>60.24140762548981</v>
       </c>
       <c r="Q32" t="n">
-        <v>45.23878831176442</v>
+        <v>45.23878831176441</v>
       </c>
       <c r="R32" t="n">
         <v>26.31506556274493</v>
       </c>
       <c r="S32" t="n">
-        <v>9.546169287581641</v>
+        <v>9.546169287581639</v>
       </c>
       <c r="T32" t="n">
         <v>1.83382802222221</v>
@@ -33494,10 +33494,10 @@
         <v>2.16474621424342</v>
       </c>
       <c r="I33" t="n">
-        <v>7.71719245313844</v>
+        <v>7.717192453138439</v>
       </c>
       <c r="J33" t="n">
-        <v>21.17656594051658</v>
+        <v>21.17656594051657</v>
       </c>
       <c r="K33" t="n">
         <v>36.19412414613986</v>
@@ -33506,16 +33506,16 @@
         <v>48.66746654683038</v>
       </c>
       <c r="M33" t="n">
-        <v>56.79263796405192</v>
+        <v>56.79263796405191</v>
       </c>
       <c r="N33" t="n">
-        <v>58.29577009919189</v>
+        <v>58.29577009919188</v>
       </c>
       <c r="O33" t="n">
-        <v>53.32924063763069</v>
+        <v>53.32924063763068</v>
       </c>
       <c r="P33" t="n">
-        <v>42.801417200604</v>
+        <v>42.80141720060399</v>
       </c>
       <c r="Q33" t="n">
         <v>28.61161390524091</v>
@@ -33524,10 +33524,10 @@
         <v>13.91650654351946</v>
       </c>
       <c r="S33" t="n">
-        <v>4.163351597330098</v>
+        <v>4.163351597330097</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9034522120298374</v>
+        <v>0.9034522120298372</v>
       </c>
       <c r="U33" t="n">
         <v>0.01474622761746199</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1879136765241604</v>
+        <v>0.1879136765241603</v>
       </c>
       <c r="H34" t="n">
         <v>1.670723414914809</v>
       </c>
       <c r="I34" t="n">
-        <v>5.65107674492657</v>
+        <v>5.651076744926569</v>
       </c>
       <c r="J34" t="n">
         <v>13.28549693025814</v>
@@ -33588,13 +33588,13 @@
         <v>29.45632294823724</v>
       </c>
       <c r="N34" t="n">
-        <v>28.75591742664722</v>
+        <v>28.75591742664721</v>
       </c>
       <c r="O34" t="n">
         <v>26.56074402361497</v>
       </c>
       <c r="P34" t="n">
-        <v>22.72730502252208</v>
+        <v>22.72730502252207</v>
       </c>
       <c r="Q34" t="n">
         <v>15.7352079496731</v>
@@ -33606,7 +33606,7 @@
         <v>3.274822889971048</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8029038906032304</v>
+        <v>0.8029038906032303</v>
       </c>
       <c r="U34" t="n">
         <v>0.01024983690131785</v>
@@ -33658,31 +33658,31 @@
         <v>35.55542229607821</v>
       </c>
       <c r="K35" t="n">
-        <v>53.28836122941143</v>
+        <v>53.28836122941142</v>
       </c>
       <c r="L35" t="n">
         <v>66.10892418431331</v>
       </c>
       <c r="M35" t="n">
-        <v>73.55891598104529</v>
+        <v>73.55891598104527</v>
       </c>
       <c r="N35" t="n">
         <v>74.74917614509756</v>
       </c>
       <c r="O35" t="n">
-        <v>70.58352739673158</v>
+        <v>70.58352739673157</v>
       </c>
       <c r="P35" t="n">
         <v>60.24140762548981</v>
       </c>
       <c r="Q35" t="n">
-        <v>45.23878831176442</v>
+        <v>45.23878831176441</v>
       </c>
       <c r="R35" t="n">
         <v>26.31506556274493</v>
       </c>
       <c r="S35" t="n">
-        <v>9.546169287581641</v>
+        <v>9.546169287581639</v>
       </c>
       <c r="T35" t="n">
         <v>1.83382802222221</v>
@@ -33731,10 +33731,10 @@
         <v>2.16474621424342</v>
       </c>
       <c r="I36" t="n">
-        <v>7.71719245313844</v>
+        <v>7.717192453138439</v>
       </c>
       <c r="J36" t="n">
-        <v>21.17656594051658</v>
+        <v>21.17656594051657</v>
       </c>
       <c r="K36" t="n">
         <v>36.19412414613986</v>
@@ -33743,16 +33743,16 @@
         <v>48.66746654683038</v>
       </c>
       <c r="M36" t="n">
-        <v>56.79263796405192</v>
+        <v>56.79263796405191</v>
       </c>
       <c r="N36" t="n">
-        <v>58.29577009919189</v>
+        <v>58.29577009919188</v>
       </c>
       <c r="O36" t="n">
-        <v>53.32924063763069</v>
+        <v>53.32924063763068</v>
       </c>
       <c r="P36" t="n">
-        <v>42.801417200604</v>
+        <v>42.80141720060399</v>
       </c>
       <c r="Q36" t="n">
         <v>28.61161390524091</v>
@@ -33761,10 +33761,10 @@
         <v>13.91650654351946</v>
       </c>
       <c r="S36" t="n">
-        <v>4.163351597330098</v>
+        <v>4.163351597330097</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9034522120298374</v>
+        <v>0.9034522120298372</v>
       </c>
       <c r="U36" t="n">
         <v>0.01474622761746199</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1879136765241604</v>
+        <v>0.1879136765241603</v>
       </c>
       <c r="H37" t="n">
         <v>1.670723414914809</v>
       </c>
       <c r="I37" t="n">
-        <v>5.65107674492657</v>
+        <v>5.651076744926569</v>
       </c>
       <c r="J37" t="n">
         <v>13.28549693025814</v>
@@ -33825,13 +33825,13 @@
         <v>29.45632294823724</v>
       </c>
       <c r="N37" t="n">
-        <v>28.75591742664722</v>
+        <v>28.75591742664721</v>
       </c>
       <c r="O37" t="n">
         <v>26.56074402361497</v>
       </c>
       <c r="P37" t="n">
-        <v>22.72730502252208</v>
+        <v>22.72730502252207</v>
       </c>
       <c r="Q37" t="n">
         <v>15.7352079496731</v>
@@ -33843,7 +33843,7 @@
         <v>3.274822889971048</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8029038906032304</v>
+        <v>0.8029038906032303</v>
       </c>
       <c r="U37" t="n">
         <v>0.01024983690131785</v>
@@ -33895,31 +33895,31 @@
         <v>35.55542229607821</v>
       </c>
       <c r="K38" t="n">
-        <v>53.28836122941143</v>
+        <v>53.28836122941142</v>
       </c>
       <c r="L38" t="n">
         <v>66.10892418431331</v>
       </c>
       <c r="M38" t="n">
-        <v>73.55891598104529</v>
+        <v>73.55891598104527</v>
       </c>
       <c r="N38" t="n">
         <v>74.74917614509756</v>
       </c>
       <c r="O38" t="n">
-        <v>70.58352739673158</v>
+        <v>70.58352739673157</v>
       </c>
       <c r="P38" t="n">
         <v>60.24140762548981</v>
       </c>
       <c r="Q38" t="n">
-        <v>45.23878831176442</v>
+        <v>45.23878831176441</v>
       </c>
       <c r="R38" t="n">
         <v>26.31506556274493</v>
       </c>
       <c r="S38" t="n">
-        <v>9.546169287581641</v>
+        <v>9.546169287581639</v>
       </c>
       <c r="T38" t="n">
         <v>1.83382802222221</v>
@@ -33968,10 +33968,10 @@
         <v>2.16474621424342</v>
       </c>
       <c r="I39" t="n">
-        <v>7.71719245313844</v>
+        <v>7.717192453138439</v>
       </c>
       <c r="J39" t="n">
-        <v>21.17656594051658</v>
+        <v>21.17656594051657</v>
       </c>
       <c r="K39" t="n">
         <v>36.19412414613986</v>
@@ -33980,16 +33980,16 @@
         <v>48.66746654683038</v>
       </c>
       <c r="M39" t="n">
-        <v>56.79263796405192</v>
+        <v>56.79263796405191</v>
       </c>
       <c r="N39" t="n">
-        <v>58.29577009919189</v>
+        <v>58.29577009919188</v>
       </c>
       <c r="O39" t="n">
-        <v>53.32924063763069</v>
+        <v>53.32924063763068</v>
       </c>
       <c r="P39" t="n">
-        <v>42.801417200604</v>
+        <v>42.80141720060399</v>
       </c>
       <c r="Q39" t="n">
         <v>28.61161390524091</v>
@@ -33998,10 +33998,10 @@
         <v>13.91650654351946</v>
       </c>
       <c r="S39" t="n">
-        <v>4.163351597330098</v>
+        <v>4.163351597330097</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9034522120298374</v>
+        <v>0.9034522120298372</v>
       </c>
       <c r="U39" t="n">
         <v>0.01474622761746199</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1879136765241604</v>
+        <v>0.1879136765241603</v>
       </c>
       <c r="H40" t="n">
         <v>1.670723414914809</v>
       </c>
       <c r="I40" t="n">
-        <v>5.65107674492657</v>
+        <v>5.651076744926569</v>
       </c>
       <c r="J40" t="n">
         <v>13.28549693025814</v>
@@ -34062,13 +34062,13 @@
         <v>29.45632294823724</v>
       </c>
       <c r="N40" t="n">
-        <v>28.75591742664722</v>
+        <v>28.75591742664721</v>
       </c>
       <c r="O40" t="n">
         <v>26.56074402361497</v>
       </c>
       <c r="P40" t="n">
-        <v>22.72730502252208</v>
+        <v>22.72730502252207</v>
       </c>
       <c r="Q40" t="n">
         <v>15.7352079496731</v>
@@ -34080,7 +34080,7 @@
         <v>3.274822889971048</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8029038906032304</v>
+        <v>0.8029038906032303</v>
       </c>
       <c r="U40" t="n">
         <v>0.01024983690131785</v>
@@ -34132,31 +34132,31 @@
         <v>35.55542229607821</v>
       </c>
       <c r="K41" t="n">
-        <v>53.28836122941143</v>
+        <v>53.28836122941142</v>
       </c>
       <c r="L41" t="n">
         <v>66.10892418431331</v>
       </c>
       <c r="M41" t="n">
-        <v>73.55891598104529</v>
+        <v>73.55891598104527</v>
       </c>
       <c r="N41" t="n">
         <v>74.74917614509756</v>
       </c>
       <c r="O41" t="n">
-        <v>70.58352739673158</v>
+        <v>70.58352739673157</v>
       </c>
       <c r="P41" t="n">
         <v>60.24140762548981</v>
       </c>
       <c r="Q41" t="n">
-        <v>45.23878831176442</v>
+        <v>45.23878831176441</v>
       </c>
       <c r="R41" t="n">
         <v>26.31506556274493</v>
       </c>
       <c r="S41" t="n">
-        <v>9.546169287581641</v>
+        <v>9.546169287581639</v>
       </c>
       <c r="T41" t="n">
         <v>1.83382802222221</v>
@@ -34205,10 +34205,10 @@
         <v>2.16474621424342</v>
       </c>
       <c r="I42" t="n">
-        <v>7.71719245313844</v>
+        <v>7.717192453138439</v>
       </c>
       <c r="J42" t="n">
-        <v>21.17656594051658</v>
+        <v>21.17656594051657</v>
       </c>
       <c r="K42" t="n">
         <v>36.19412414613986</v>
@@ -34217,16 +34217,16 @@
         <v>48.66746654683038</v>
       </c>
       <c r="M42" t="n">
-        <v>56.79263796405192</v>
+        <v>56.79263796405191</v>
       </c>
       <c r="N42" t="n">
-        <v>58.29577009919189</v>
+        <v>58.29577009919188</v>
       </c>
       <c r="O42" t="n">
-        <v>53.32924063763069</v>
+        <v>53.32924063763068</v>
       </c>
       <c r="P42" t="n">
-        <v>42.801417200604</v>
+        <v>42.80141720060399</v>
       </c>
       <c r="Q42" t="n">
         <v>28.61161390524091</v>
@@ -34235,10 +34235,10 @@
         <v>13.91650654351946</v>
       </c>
       <c r="S42" t="n">
-        <v>4.163351597330098</v>
+        <v>4.163351597330097</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9034522120298374</v>
+        <v>0.9034522120298372</v>
       </c>
       <c r="U42" t="n">
         <v>0.01474622761746199</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1879136765241604</v>
+        <v>0.1879136765241603</v>
       </c>
       <c r="H43" t="n">
         <v>1.670723414914809</v>
       </c>
       <c r="I43" t="n">
-        <v>5.65107674492657</v>
+        <v>5.651076744926569</v>
       </c>
       <c r="J43" t="n">
         <v>13.28549693025814</v>
@@ -34299,13 +34299,13 @@
         <v>29.45632294823724</v>
       </c>
       <c r="N43" t="n">
-        <v>28.75591742664722</v>
+        <v>28.75591742664721</v>
       </c>
       <c r="O43" t="n">
         <v>26.56074402361497</v>
       </c>
       <c r="P43" t="n">
-        <v>22.72730502252208</v>
+        <v>22.72730502252207</v>
       </c>
       <c r="Q43" t="n">
         <v>15.7352079496731</v>
@@ -34317,7 +34317,7 @@
         <v>3.274822889971048</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8029038906032304</v>
+        <v>0.8029038906032303</v>
       </c>
       <c r="U43" t="n">
         <v>0.01024983690131785</v>
@@ -34369,31 +34369,31 @@
         <v>35.55542229607821</v>
       </c>
       <c r="K44" t="n">
-        <v>53.28836122941143</v>
+        <v>53.28836122941142</v>
       </c>
       <c r="L44" t="n">
         <v>66.10892418431331</v>
       </c>
       <c r="M44" t="n">
-        <v>73.55891598104529</v>
+        <v>73.55891598104527</v>
       </c>
       <c r="N44" t="n">
         <v>74.74917614509756</v>
       </c>
       <c r="O44" t="n">
-        <v>70.58352739673158</v>
+        <v>70.58352739673157</v>
       </c>
       <c r="P44" t="n">
         <v>60.24140762548981</v>
       </c>
       <c r="Q44" t="n">
-        <v>45.23878831176442</v>
+        <v>45.23878831176441</v>
       </c>
       <c r="R44" t="n">
         <v>26.31506556274493</v>
       </c>
       <c r="S44" t="n">
-        <v>9.546169287581641</v>
+        <v>9.546169287581639</v>
       </c>
       <c r="T44" t="n">
         <v>1.83382802222221</v>
@@ -34442,10 +34442,10 @@
         <v>2.16474621424342</v>
       </c>
       <c r="I45" t="n">
-        <v>7.71719245313844</v>
+        <v>7.717192453138439</v>
       </c>
       <c r="J45" t="n">
-        <v>21.17656594051658</v>
+        <v>21.17656594051657</v>
       </c>
       <c r="K45" t="n">
         <v>36.19412414613986</v>
@@ -34454,16 +34454,16 @@
         <v>48.66746654683038</v>
       </c>
       <c r="M45" t="n">
-        <v>56.79263796405192</v>
+        <v>56.79263796405191</v>
       </c>
       <c r="N45" t="n">
-        <v>58.29577009919189</v>
+        <v>58.29577009919188</v>
       </c>
       <c r="O45" t="n">
-        <v>53.32924063763069</v>
+        <v>53.32924063763068</v>
       </c>
       <c r="P45" t="n">
-        <v>42.801417200604</v>
+        <v>42.80141720060399</v>
       </c>
       <c r="Q45" t="n">
         <v>28.61161390524091</v>
@@ -34472,10 +34472,10 @@
         <v>13.91650654351946</v>
       </c>
       <c r="S45" t="n">
-        <v>4.163351597330098</v>
+        <v>4.163351597330097</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9034522120298374</v>
+        <v>0.9034522120298372</v>
       </c>
       <c r="U45" t="n">
         <v>0.01474622761746199</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1879136765241604</v>
+        <v>0.1879136765241603</v>
       </c>
       <c r="H46" t="n">
         <v>1.670723414914809</v>
       </c>
       <c r="I46" t="n">
-        <v>5.65107674492657</v>
+        <v>5.651076744926569</v>
       </c>
       <c r="J46" t="n">
         <v>13.28549693025814</v>
@@ -34536,13 +34536,13 @@
         <v>29.45632294823724</v>
       </c>
       <c r="N46" t="n">
-        <v>28.75591742664722</v>
+        <v>28.75591742664721</v>
       </c>
       <c r="O46" t="n">
         <v>26.56074402361497</v>
       </c>
       <c r="P46" t="n">
-        <v>22.72730502252208</v>
+        <v>22.72730502252207</v>
       </c>
       <c r="Q46" t="n">
         <v>15.7352079496731</v>
@@ -34554,7 +34554,7 @@
         <v>3.274822889971048</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8029038906032304</v>
+        <v>0.8029038906032303</v>
       </c>
       <c r="U46" t="n">
         <v>0.01024983690131785</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>86.57701734253686</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -35416,22 +35416,22 @@
         <v>49.11836494962074</v>
       </c>
       <c r="M11" t="n">
-        <v>83.82128114712805</v>
+        <v>83.82128114712803</v>
       </c>
       <c r="N11" t="n">
         <v>78.26604557622237</v>
       </c>
       <c r="O11" t="n">
-        <v>36.62222692053275</v>
+        <v>36.62222692053274</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>86.57701734253639</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>9.373948529882682</v>
+        <v>9.373948529882764</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,16 +35492,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>86.82170806664902</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="M12" t="n">
-        <v>86.82170806664902</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="N12" t="n">
-        <v>83.31376026597637</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="O12" t="n">
-        <v>86.82170806664902</v>
+        <v>83.31376026597628</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35541,34 +35541,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>25.87207835771821</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>37.03181805071395</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>58.30634877197568</v>
       </c>
       <c r="E13" t="n">
-        <v>61.81285781046131</v>
+        <v>61.8128578104614</v>
       </c>
       <c r="F13" t="n">
-        <v>64.56211680423965</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>37.71326554316123</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>38.80063329763345</v>
+        <v>38.80063329763354</v>
       </c>
       <c r="J13" t="n">
-        <v>37.74306453728899</v>
+        <v>83.636366174006</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>60.97962834713941</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -35589,7 +35589,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.3051452394958662</v>
+        <v>0.3051452394959515</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35653,22 +35653,22 @@
         <v>49.11836494962074</v>
       </c>
       <c r="M14" t="n">
-        <v>83.82128114712805</v>
+        <v>83.82128114712803</v>
       </c>
       <c r="N14" t="n">
         <v>78.26604557622237</v>
       </c>
       <c r="O14" t="n">
-        <v>86.82170806664902</v>
+        <v>36.62222692053274</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.37753619642059</v>
+        <v>86.57701734253639</v>
       </c>
       <c r="R14" t="n">
-        <v>9.373948529882682</v>
+        <v>9.373948529882764</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>39.40104218157287</v>
+        <v>39.40104218157286</v>
       </c>
       <c r="L15" t="n">
-        <v>86.82170806664902</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>43.91271808440352</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="N15" t="n">
-        <v>86.82170806664902</v>
+        <v>45.01791191725194</v>
       </c>
       <c r="O15" t="n">
-        <v>86.82170806664902</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>85.71651423380038</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35781,34 +35781,34 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>37.03181805071404</v>
       </c>
       <c r="D16" t="n">
-        <v>58.30634877197559</v>
+        <v>58.30634877197568</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>61.8128578104614</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>64.56211680423974</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>37.71326554316123</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>38.80063329763345</v>
+        <v>38.80063329763354</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>43.02205966619164</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>86.82170806664902</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -35817,7 +35817,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>82.19902396129338</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35826,7 +35826,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>0.3051452394959515</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>82.28149709700197</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -35890,13 +35890,13 @@
         <v>49.11836494962074</v>
       </c>
       <c r="M17" t="n">
-        <v>83.82128114712805</v>
+        <v>83.82128114712803</v>
       </c>
       <c r="N17" t="n">
         <v>78.26604557622237</v>
       </c>
       <c r="O17" t="n">
-        <v>36.62222692053275</v>
+        <v>36.62222692053274</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35914,10 +35914,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>84.39968706593804</v>
       </c>
       <c r="V17" t="n">
-        <v>13.66946877541756</v>
+        <v>11.55127880648111</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -35963,19 +35963,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>39.40104218157286</v>
       </c>
       <c r="L18" t="n">
-        <v>86.82170806664902</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="M18" t="n">
-        <v>84.41895409882501</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>86.82170806664902</v>
+        <v>45.01791191725194</v>
       </c>
       <c r="P18" t="n">
         <v>85.71651423380038</v>
@@ -36127,13 +36127,13 @@
         <v>49.11836494962074</v>
       </c>
       <c r="M20" t="n">
-        <v>83.82128114712805</v>
+        <v>83.82128114712803</v>
       </c>
       <c r="N20" t="n">
         <v>78.26604557622237</v>
       </c>
       <c r="O20" t="n">
-        <v>36.62222692053275</v>
+        <v>36.62222692053274</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36148,13 +36148,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>82.28149709700152</v>
       </c>
       <c r="U20" t="n">
-        <v>82.28149709700189</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>13.66946877541761</v>
+        <v>13.66946877541767</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36203,16 +36203,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>86.82170806664902</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="M21" t="n">
-        <v>86.82170806664902</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="N21" t="n">
-        <v>86.82170806664902</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="O21" t="n">
-        <v>83.31376026597634</v>
+        <v>83.31376026597628</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36364,13 +36364,13 @@
         <v>49.11836494962074</v>
       </c>
       <c r="M23" t="n">
-        <v>83.82128114712805</v>
+        <v>83.82128114712803</v>
       </c>
       <c r="N23" t="n">
         <v>78.26604557622237</v>
       </c>
       <c r="O23" t="n">
-        <v>36.62222692053275</v>
+        <v>36.62222692053274</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36388,10 +36388,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>82.28149709700104</v>
+        <v>84.39968706593804</v>
       </c>
       <c r="V23" t="n">
-        <v>13.66946877541761</v>
+        <v>11.55127880648106</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>39.40104218157286</v>
       </c>
       <c r="L24" t="n">
-        <v>86.82170806664881</v>
+        <v>86.82170806664892</v>
       </c>
       <c r="M24" t="n">
-        <v>86.82170806664881</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>86.82170806664881</v>
+        <v>45.01791191725194</v>
       </c>
       <c r="O24" t="n">
-        <v>83.31376026597611</v>
+        <v>86.82170806664892</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>85.71651423380038</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,22 +36592,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0933333569526</v>
+        <v>137.0933333569525</v>
       </c>
       <c r="K26" t="n">
         <v>207.6642782525777</v>
       </c>
       <c r="L26" t="n">
-        <v>261.9576729015463</v>
+        <v>261.9576729015486</v>
       </c>
       <c r="M26" t="n">
-        <v>296.6605890990559</v>
+        <v>296.6605890990558</v>
       </c>
       <c r="N26" t="n">
-        <v>291.1053535281502</v>
+        <v>291.1053535281501</v>
       </c>
       <c r="O26" t="n">
-        <v>249.4615348724606</v>
+        <v>249.4615348724605</v>
       </c>
       <c r="P26" t="n">
         <v>199.5020236511095</v>
@@ -36616,7 +36616,7 @@
         <v>124.4452685644821</v>
       </c>
       <c r="R26" t="n">
-        <v>18.7242574591242</v>
+        <v>18.72425745912417</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>39.40104218157287</v>
+        <v>39.40104218157286</v>
       </c>
       <c r="L27" t="n">
         <v>119.9356669720254</v>
@@ -36686,7 +36686,7 @@
         <v>208.6727399321479</v>
       </c>
       <c r="O27" t="n">
-        <v>134.5846053067293</v>
+        <v>134.5846053067292</v>
       </c>
       <c r="P27" t="n">
         <v>85.71651423380038</v>
@@ -36726,16 +36726,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.22238728695973</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>46.38212697995544</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>67.65665770121709</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>71.1631667397028</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -36744,7 +36744,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>47.06357447240273</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -36753,19 +36753,19 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>4.794347222905964</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>16.04795679110025</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>176.1340748693864</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36774,7 +36774,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.655454168737387</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0933333569526</v>
+        <v>137.0933333569525</v>
       </c>
       <c r="K29" t="n">
         <v>207.6642782525777</v>
       </c>
       <c r="L29" t="n">
-        <v>261.9576729015486</v>
+        <v>261.9576729015485</v>
       </c>
       <c r="M29" t="n">
-        <v>296.6605890990546</v>
+        <v>296.6605890990558</v>
       </c>
       <c r="N29" t="n">
-        <v>291.1053535281502</v>
+        <v>291.1053535281501</v>
       </c>
       <c r="O29" t="n">
-        <v>249.4615348724606</v>
+        <v>249.4615348724605</v>
       </c>
       <c r="P29" t="n">
-        <v>199.5020236511095</v>
+        <v>199.5020236511085</v>
       </c>
       <c r="Q29" t="n">
-        <v>124.4452685644821</v>
+        <v>124.445268564482</v>
       </c>
       <c r="R29" t="n">
-        <v>18.7242574591242</v>
+        <v>18.72425745912414</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>39.40104218157287</v>
+        <v>39.40104218157286</v>
       </c>
       <c r="L30" t="n">
         <v>119.9356669720254</v>
@@ -36923,7 +36923,7 @@
         <v>208.6727399321479</v>
       </c>
       <c r="O30" t="n">
-        <v>134.5846053067293</v>
+        <v>134.5846053067292</v>
       </c>
       <c r="P30" t="n">
         <v>85.71651423380038</v>
@@ -36972,7 +36972,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>51.27034407806054</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -36996,22 +36996,22 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>141.3237680049865</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>176.1340748693864</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.08065094245994</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.655454168737387</v>
+        <v>9.655454168737331</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>137.0933333569525</v>
       </c>
       <c r="K32" t="n">
-        <v>207.6642782525776</v>
+        <v>207.6642782525777</v>
       </c>
       <c r="L32" t="n">
-        <v>261.9576729015484</v>
+        <v>261.9576729015486</v>
       </c>
       <c r="M32" t="n">
-        <v>296.6605890990558</v>
+        <v>296.6605890990559</v>
       </c>
       <c r="N32" t="n">
-        <v>291.1053535281501</v>
+        <v>291.105353528149</v>
       </c>
       <c r="O32" t="n">
-        <v>249.4615348724605</v>
+        <v>249.4615348724606</v>
       </c>
       <c r="P32" t="n">
         <v>199.5020236511095</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.445268564482</v>
+        <v>124.4452685644821</v>
       </c>
       <c r="R32" t="n">
-        <v>18.72425745912412</v>
+        <v>18.7242574591242</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>39.40104218157287</v>
+        <v>39.40104218157286</v>
       </c>
       <c r="L33" t="n">
         <v>119.9356669720254</v>
@@ -37160,7 +37160,7 @@
         <v>208.6727399321479</v>
       </c>
       <c r="O33" t="n">
-        <v>134.5846053067293</v>
+        <v>134.5846053067292</v>
       </c>
       <c r="P33" t="n">
         <v>85.71651423380038</v>
@@ -37200,19 +37200,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>35.22238728695973</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>46.38212697995547</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>67.65665770121711</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>71.16316673970283</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>16.63553440834872</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37239,10 +37239,10 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>176.1340748693864</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>60.92579824679807</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,25 +37303,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>161.1675561800805</v>
+        <v>45.19704047489765</v>
       </c>
       <c r="K35" t="n">
-        <v>231.7385010757057</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>286.0318957246765</v>
+        <v>49.11836494962074</v>
       </c>
       <c r="M35" t="n">
         <v>320.7348119221838</v>
       </c>
       <c r="N35" t="n">
-        <v>78.26604557622237</v>
+        <v>315.1795763512782</v>
       </c>
       <c r="O35" t="n">
-        <v>36.62222692053275</v>
+        <v>273.5357576955885</v>
       </c>
       <c r="P35" t="n">
-        <v>112.7807604684045</v>
+        <v>223.5762464742375</v>
       </c>
       <c r="Q35" t="n">
         <v>148.5194913876101</v>
@@ -37330,7 +37330,7 @@
         <v>42.79848028225217</v>
       </c>
       <c r="S35" t="n">
-        <v>9.674593284578428</v>
+        <v>9.674593284578426</v>
       </c>
       <c r="T35" t="n">
         <v>14.50106439728996</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>39.40104218157287</v>
+        <v>39.40104218157286</v>
       </c>
       <c r="L36" t="n">
         <v>119.9356669720254</v>
@@ -37397,7 +37397,7 @@
         <v>208.6727399321479</v>
       </c>
       <c r="O36" t="n">
-        <v>134.5846053067293</v>
+        <v>134.5846053067292</v>
       </c>
       <c r="P36" t="n">
         <v>85.71651423380038</v>
@@ -37440,7 +37440,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>70.45634980308344</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -37455,7 +37455,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>30.43397286480826</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -37479,7 +37479,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>95.86429786398944</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37488,10 +37488,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>1.570874163217027</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>13.17535899376807</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -37506,7 +37506,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.77225796088737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -37543,34 +37543,34 @@
         <v>161.1675561800805</v>
       </c>
       <c r="K38" t="n">
-        <v>120.9430150698735</v>
+        <v>231.7385010757057</v>
       </c>
       <c r="L38" t="n">
         <v>49.11836494962074</v>
       </c>
       <c r="M38" t="n">
-        <v>320.7348119221838</v>
+        <v>83.82128114712803</v>
       </c>
       <c r="N38" t="n">
-        <v>315.1795763512781</v>
+        <v>204.3840903454454</v>
       </c>
       <c r="O38" t="n">
-        <v>36.62222692053275</v>
+        <v>273.5357576955885</v>
       </c>
       <c r="P38" t="n">
-        <v>223.5762464742374</v>
+        <v>223.5762464742375</v>
       </c>
       <c r="Q38" t="n">
-        <v>148.51949138761</v>
+        <v>148.5194913876101</v>
       </c>
       <c r="R38" t="n">
-        <v>42.79848028225209</v>
+        <v>42.79848028225217</v>
       </c>
       <c r="S38" t="n">
-        <v>9.674593284578343</v>
+        <v>9.674593284578426</v>
       </c>
       <c r="T38" t="n">
-        <v>14.50106439728987</v>
+        <v>14.50106439728996</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>39.40104218157287</v>
+        <v>39.40104218157286</v>
       </c>
       <c r="L39" t="n">
         <v>119.9356669720254</v>
@@ -37634,7 +37634,7 @@
         <v>208.6727399321479</v>
       </c>
       <c r="O39" t="n">
-        <v>134.5846053067293</v>
+        <v>134.5846053067292</v>
       </c>
       <c r="P39" t="n">
         <v>85.71651423380038</v>
@@ -37683,7 +37683,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>85.89624730107896</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -37692,7 +37692,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>71.13779729553072</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -37725,10 +37725,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>1.570874163216942</v>
+        <v>1.570874163217027</v>
       </c>
       <c r="T40" t="n">
-        <v>13.17535899376798</v>
+        <v>8.161551038428415</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -37740,10 +37740,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>14.99407536681318</v>
+        <v>14.99407536681326</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>19.77225796088737</v>
       </c>
     </row>
     <row r="41">
@@ -37780,34 +37780,34 @@
         <v>161.1675561800805</v>
       </c>
       <c r="K41" t="n">
-        <v>231.7385010757057</v>
+        <v>231.7385010757056</v>
       </c>
       <c r="L41" t="n">
-        <v>286.0318957246765</v>
+        <v>175.2364097188442</v>
       </c>
       <c r="M41" t="n">
-        <v>83.82128114712805</v>
+        <v>83.82128114712803</v>
       </c>
       <c r="N41" t="n">
         <v>78.26604557622237</v>
       </c>
       <c r="O41" t="n">
-        <v>162.7402716897554</v>
+        <v>273.5357576955885</v>
       </c>
       <c r="P41" t="n">
         <v>223.5762464742375</v>
       </c>
       <c r="Q41" t="n">
-        <v>148.5194913876101</v>
+        <v>148.51949138761</v>
       </c>
       <c r="R41" t="n">
-        <v>42.79848028225217</v>
+        <v>42.79848028225211</v>
       </c>
       <c r="S41" t="n">
-        <v>9.674593284578428</v>
+        <v>9.67459328457837</v>
       </c>
       <c r="T41" t="n">
-        <v>14.50106439728996</v>
+        <v>14.5010643972899</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>39.40104218157287</v>
+        <v>39.40104218157286</v>
       </c>
       <c r="L42" t="n">
         <v>119.9356669720254</v>
@@ -37871,7 +37871,7 @@
         <v>208.6727399321479</v>
       </c>
       <c r="O42" t="n">
-        <v>134.5846053067293</v>
+        <v>134.5846053067292</v>
       </c>
       <c r="P42" t="n">
         <v>85.71651423380038</v>
@@ -37923,13 +37923,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>29.75252537236132</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>71.13779729553066</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -37944,7 +37944,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>95.86429786398944</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -37962,10 +37962,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>1.57087416321697</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>13.17535899376801</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -37980,7 +37980,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.77225796088737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -38017,34 +38017,34 @@
         <v>161.1675561800805</v>
       </c>
       <c r="K44" t="n">
-        <v>231.7385010757057</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>286.0318957246765</v>
       </c>
       <c r="M44" t="n">
-        <v>209.9393259163507</v>
+        <v>320.7348119221838</v>
       </c>
       <c r="N44" t="n">
         <v>78.26604557622237</v>
       </c>
       <c r="O44" t="n">
-        <v>36.62222692053275</v>
+        <v>157.5652419904061</v>
       </c>
       <c r="P44" t="n">
         <v>223.5762464742375</v>
       </c>
       <c r="Q44" t="n">
-        <v>148.5194913876101</v>
+        <v>148.51949138761</v>
       </c>
       <c r="R44" t="n">
-        <v>42.79848028225217</v>
+        <v>42.79848028225211</v>
       </c>
       <c r="S44" t="n">
-        <v>9.674593284578428</v>
+        <v>9.67459328457837</v>
       </c>
       <c r="T44" t="n">
-        <v>14.50106439728996</v>
+        <v>14.5010643972899</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>39.40104218157287</v>
+        <v>39.40104218157286</v>
       </c>
       <c r="L45" t="n">
         <v>119.9356669720254</v>
@@ -38108,7 +38108,7 @@
         <v>208.6727399321479</v>
       </c>
       <c r="O45" t="n">
-        <v>134.5846053067293</v>
+        <v>134.5846053067292</v>
       </c>
       <c r="P45" t="n">
         <v>85.71651423380038</v>
@@ -38148,10 +38148,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>59.29661011008764</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>21.5736123870888</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -38163,7 +38163,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>68.21822932363499</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -38196,10 +38196,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>11.08111901032415</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>1.570874163217027</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -38214,10 +38214,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>14.99407536681326</v>
+        <v>14.99407536681321</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.77225796088737</v>
+        <v>19.77225796088732</v>
       </c>
     </row>
   </sheetData>
